--- a/Economic_vs_Military.xlsx
+++ b/Economic_vs_Military.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerri\Documents\GitHub\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB32A29-61D8-4AD7-823B-71DF9081B913}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B9273-2D8F-41AE-8FFF-37C50B97E7E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{147129B4-06D1-4295-BCA7-BDE72E3E9A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic&amp;Military breakout" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Economic&amp;Military breakout'!$A$1:$H$289</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="24">
   <si>
     <t>Row Labels</t>
   </si>
@@ -101,6 +104,9 @@
   <si>
     <t>Zimbabwe</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,7 +177,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273EFB92-0071-4567-B37F-FE46B1F78C8C}">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J272" sqref="J272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,11 +507,12 @@
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +528,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -536,10 +554,17 @@
       <c r="E2" s="4">
         <v>165922662.62838554</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -555,10 +580,17 @@
       <c r="E3" s="4">
         <v>215989414.30960298</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -574,10 +606,17 @@
       <c r="E4" s="4">
         <v>152687271.9015792</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -593,10 +632,17 @@
       <c r="E5" s="4">
         <v>83502515.100788504</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -612,10 +658,17 @@
       <c r="E6" s="4">
         <v>96998944.347731233</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,10 +684,17 @@
       <c r="E7" s="4">
         <v>62427827.609634444</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -650,10 +710,17 @@
       <c r="E8" s="4">
         <v>65768859.160864957</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="5">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -669,10 +736,17 @@
       <c r="E9" s="4">
         <v>61490919.143439025</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="5">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -688,10 +762,17 @@
       <c r="E10" s="4">
         <v>111883100.03812057</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="5">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -707,10 +788,17 @@
       <c r="E11" s="4">
         <v>89914817.860250622</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="5">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -726,10 +814,17 @@
       <c r="E12" s="4">
         <v>79970967.380302444</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="5">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -745,10 +840,17 @@
       <c r="E13" s="4">
         <v>58307991.282264017</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="5">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -764,10 +866,17 @@
       <c r="E14" s="4">
         <v>57364444.726053253</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="5">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -783,10 +892,17 @@
       <c r="E15" s="4">
         <v>60014510.897697337</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="5">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -802,10 +918,17 @@
       <c r="E16" s="4">
         <v>68303961.445663363</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -821,10 +944,17 @@
       <c r="E17" s="4">
         <v>75594977.329999998</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="5">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -840,8 +970,17 @@
       <c r="E18" s="4">
         <v>39452274.422038473</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7</v>
+      </c>
+      <c r="H18" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -857,8 +996,17 @@
       <c r="E19" s="4">
         <v>41918257.181650661</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="5">
+        <v>17</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -874,8 +1022,17 @@
       <c r="E20" s="4">
         <v>40254255.836723156</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -891,8 +1048,17 @@
       <c r="E21" s="4">
         <v>30205618.252502467</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="5">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -908,8 +1074,17 @@
       <c r="E22" s="4">
         <v>23260981.735226978</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -925,8 +1100,17 @@
       <c r="E23" s="4">
         <v>374900633.66939586</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -942,8 +1126,17 @@
       <c r="E24" s="4">
         <v>35178977.869556904</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="5">
+        <v>17</v>
+      </c>
+      <c r="G24" s="5">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -959,8 +1152,17 @@
       <c r="E25" s="4">
         <v>48275918.147508033</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -976,8 +1178,17 @@
       <c r="E26" s="4">
         <v>51590437.497936167</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5">
+        <v>15</v>
+      </c>
+      <c r="H26" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1204,17 @@
       <c r="E27" s="4">
         <v>49940097.234234892</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <v>17</v>
+      </c>
+      <c r="G27" s="5">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1230,17 @@
       <c r="E28" s="4">
         <v>46922081.099438973</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="5">
+        <v>16</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1256,17 @@
       <c r="E29" s="4">
         <v>23394117.447255578</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="5">
+        <v>17</v>
+      </c>
+      <c r="G29" s="5">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1044,8 +1282,17 @@
       <c r="E30" s="4">
         <v>48932588.145375967</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="5">
+        <v>16</v>
+      </c>
+      <c r="G30" s="5">
+        <v>14</v>
+      </c>
+      <c r="H30" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1308,17 @@
       <c r="E31" s="4">
         <v>116355567.07564598</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="5">
+        <v>14</v>
+      </c>
+      <c r="G31" s="5">
+        <v>9</v>
+      </c>
+      <c r="H31" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1078,8 +1334,17 @@
       <c r="E32" s="4">
         <v>37552762.781778581</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5">
+        <v>18</v>
+      </c>
+      <c r="G32" s="5">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1095,8 +1360,17 @@
       <c r="E33" s="4">
         <v>418818416.43000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="5">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>7</v>
+      </c>
+      <c r="H33" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1112,8 +1386,17 @@
       <c r="E34" s="4">
         <v>29496275.848467629</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5">
+        <v>17</v>
+      </c>
+      <c r="G34" s="5">
+        <v>13</v>
+      </c>
+      <c r="H34" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1129,8 +1412,17 @@
       <c r="E35" s="4">
         <v>62839522.556204423</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="5">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5">
+        <v>16</v>
+      </c>
+      <c r="H35" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1146,8 +1438,17 @@
       <c r="E36" s="4">
         <v>62044874.813534424</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5">
+        <v>11</v>
+      </c>
+      <c r="H36" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1163,8 +1464,17 @@
       <c r="E37" s="4">
         <v>72726136.320949525</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="5">
+        <v>11</v>
+      </c>
+      <c r="G37" s="5">
+        <v>13</v>
+      </c>
+      <c r="H37" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1180,8 +1490,17 @@
       <c r="E38" s="4">
         <v>63551434.580908991</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="5">
+        <v>14</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8</v>
+      </c>
+      <c r="H38" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1197,8 +1516,17 @@
       <c r="E39" s="4">
         <v>39446739.065563813</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="5">
+        <v>17</v>
+      </c>
+      <c r="G39" s="5">
+        <v>13</v>
+      </c>
+      <c r="H39" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1214,8 +1542,17 @@
       <c r="E40" s="4">
         <v>35610792.052000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="5">
+        <v>16</v>
+      </c>
+      <c r="G40" s="5">
+        <v>12</v>
+      </c>
+      <c r="H40" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1231,8 +1568,17 @@
       <c r="E41" s="4">
         <v>68305885.699158013</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="5">
+        <v>14</v>
+      </c>
+      <c r="G41" s="5">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,8 +1594,17 @@
       <c r="E42" s="4">
         <v>57405970.387803338</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="5">
+        <v>16</v>
+      </c>
+      <c r="G42" s="5">
+        <v>13</v>
+      </c>
+      <c r="H42" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1620,17 @@
       <c r="E43" s="4">
         <v>75726401.446820155</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="5">
+        <v>16</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1282,8 +1646,17 @@
       <c r="E44" s="4">
         <v>61404430.849669881</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="5">
+        <v>17</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1299,8 +1672,17 @@
       <c r="E45" s="4">
         <v>57479174.722884186</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="5">
+        <v>15</v>
+      </c>
+      <c r="G45" s="5">
+        <v>6</v>
+      </c>
+      <c r="H45" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -1316,8 +1698,17 @@
       <c r="E46" s="4">
         <v>39945129.906750835</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="5">
+        <v>17</v>
+      </c>
+      <c r="G46" s="5">
+        <v>11</v>
+      </c>
+      <c r="H46" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1333,8 +1724,17 @@
       <c r="E47" s="4">
         <v>50938858.481991246</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="5">
+        <v>17</v>
+      </c>
+      <c r="G47" s="5">
+        <v>14</v>
+      </c>
+      <c r="H47" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1350,8 +1750,17 @@
       <c r="E48" s="4">
         <v>72334353.137238503</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="5">
+        <v>14</v>
+      </c>
+      <c r="G48" s="5">
+        <v>15</v>
+      </c>
+      <c r="H48" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1367,8 +1776,17 @@
       <c r="E49" s="4">
         <v>68477211.001159012</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="5">
+        <v>16</v>
+      </c>
+      <c r="G49" s="5">
+        <v>17</v>
+      </c>
+      <c r="H49" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1384,8 +1802,17 @@
       <c r="E50" s="4">
         <v>200332785.75808239</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>4</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
@@ -1401,8 +1828,17 @@
       <c r="E51" s="4">
         <v>801291287.599558</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1418,8 +1854,17 @@
       <c r="E52" s="4">
         <v>469527773.38788229</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1435,8 +1880,17 @@
       <c r="E53" s="4">
         <v>840836346.12875915</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1452,8 +1906,17 @@
       <c r="E54" s="4">
         <v>368773783.69630486</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="5">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
@@ -1469,8 +1932,17 @@
       <c r="E55" s="4">
         <v>487068332.45703971</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="5">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1486,8 +1958,17 @@
       <c r="E56" s="4">
         <v>1060346974.7980808</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>4</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -1503,8 +1984,17 @@
       <c r="E57" s="4">
         <v>977018632.13834131</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>6</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -1520,8 +2010,17 @@
       <c r="E58" s="4">
         <v>932198906.78787684</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>14</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -1537,8 +2036,17 @@
       <c r="E59" s="4">
         <v>763313455.71015406</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5">
+        <v>13</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1554,8 +2062,17 @@
       <c r="E60" s="4">
         <v>864741985.60868132</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+      <c r="G60" s="5">
+        <v>6</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -1571,8 +2088,17 @@
       <c r="E61" s="4">
         <v>772374940.35651588</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5">
+        <v>10</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -1588,8 +2114,17 @@
       <c r="E62" s="4">
         <v>772079325.1579442</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="5">
+        <v>2</v>
+      </c>
+      <c r="G62" s="5">
+        <v>7</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -1605,8 +2140,17 @@
       <c r="E63" s="4">
         <v>832351844.04051602</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5">
+        <v>3</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1622,8 +2166,17 @@
       <c r="E64" s="4">
         <v>1130434925.6029224</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>6</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -1639,8 +2192,17 @@
       <c r="E65" s="4">
         <v>1102958376.5262439</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>11</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -1656,8 +2218,17 @@
       <c r="E66" s="4">
         <v>94395125.073825672</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="5">
+        <v>8</v>
+      </c>
+      <c r="G66" s="5">
+        <v>6</v>
+      </c>
+      <c r="H66" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -1673,8 +2244,17 @@
       <c r="E67" s="4">
         <v>95687339.120811433</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="5">
+        <v>8</v>
+      </c>
+      <c r="G67" s="5">
+        <v>5</v>
+      </c>
+      <c r="H67" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -1690,8 +2270,17 @@
       <c r="E68" s="4">
         <v>109935916.04721117</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="5">
+        <v>8</v>
+      </c>
+      <c r="G68" s="5">
+        <v>5</v>
+      </c>
+      <c r="H68" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -1707,8 +2296,17 @@
       <c r="E69" s="4">
         <v>92334860.896959811</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="5">
+        <v>9</v>
+      </c>
+      <c r="G69" s="5">
+        <v>7</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -1724,8 +2322,17 @@
       <c r="E70" s="4">
         <v>109997307.07501365</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="5">
+        <v>9</v>
+      </c>
+      <c r="G70" s="5">
+        <v>4</v>
+      </c>
+      <c r="H70" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -1741,8 +2348,17 @@
       <c r="E71" s="4">
         <v>689762457.13710952</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="5">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>5</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -1758,8 +2374,17 @@
       <c r="E72" s="4">
         <v>85707525.650369138</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="5">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5">
+        <v>3</v>
+      </c>
+      <c r="H72" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -1775,8 +2400,17 @@
       <c r="E73" s="4">
         <v>110853751.19750704</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="5">
+        <v>13</v>
+      </c>
+      <c r="G73" s="5">
+        <v>4</v>
+      </c>
+      <c r="H73" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -1792,8 +2426,17 @@
       <c r="E74" s="4">
         <v>123290151.89098635</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="5">
+        <v>11</v>
+      </c>
+      <c r="G74" s="5">
+        <v>3</v>
+      </c>
+      <c r="H74" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -1809,8 +2452,17 @@
       <c r="E75" s="4">
         <v>153661169.69827455</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="5">
+        <v>11</v>
+      </c>
+      <c r="G75" s="5">
+        <v>8</v>
+      </c>
+      <c r="H75" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -1826,8 +2478,17 @@
       <c r="E76" s="4">
         <v>161156555.68764636</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="5">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5">
+        <v>8</v>
+      </c>
+      <c r="H76" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -1843,8 +2504,17 @@
       <c r="E77" s="4">
         <v>149389749.94649741</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="5">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5">
+        <v>9</v>
+      </c>
+      <c r="H77" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -1860,8 +2530,17 @@
       <c r="E78" s="4">
         <v>192095453.37745893</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="5">
+        <v>8</v>
+      </c>
+      <c r="G78" s="5">
+        <v>9</v>
+      </c>
+      <c r="H78" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -1877,8 +2556,17 @@
       <c r="E79" s="4">
         <v>298606088.26476097</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="5">
+        <v>7</v>
+      </c>
+      <c r="G79" s="5">
+        <v>6</v>
+      </c>
+      <c r="H79" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -1894,8 +2582,17 @@
       <c r="E80" s="4">
         <v>723894184.17302692</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="5">
+        <v>5</v>
+      </c>
+      <c r="G80" s="5">
+        <v>4</v>
+      </c>
+      <c r="H80" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -1911,8 +2608,17 @@
       <c r="E81" s="4">
         <v>184267994.98000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="5">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5">
+        <v>4</v>
+      </c>
+      <c r="H81" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -1928,8 +2634,17 @@
       <c r="E82" s="4">
         <v>150540358.19875789</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="5">
+        <v>5</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1945,8 +2660,17 @@
       <c r="E83" s="4">
         <v>137003112.80936453</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="5">
+        <v>4</v>
+      </c>
+      <c r="G83" s="5">
+        <v>4</v>
+      </c>
+      <c r="H83" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
@@ -1962,8 +2686,17 @@
       <c r="E84" s="4">
         <v>210433589.58314818</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="5">
+        <v>3</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1</v>
+      </c>
+      <c r="H84" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1979,8 +2712,17 @@
       <c r="E85" s="4">
         <v>281399369.6686464</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="5">
+        <v>3</v>
+      </c>
+      <c r="G85" s="5">
+        <v>3</v>
+      </c>
+      <c r="H85" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
@@ -1996,8 +2738,17 @@
       <c r="E86" s="4">
         <v>412057962.0630669</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="5">
+        <v>1</v>
+      </c>
+      <c r="G86" s="5">
+        <v>14</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -2013,8 +2764,17 @@
       <c r="E87" s="4">
         <v>490730964.84235358</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="5">
+        <v>3</v>
+      </c>
+      <c r="G87" s="5">
+        <v>16</v>
+      </c>
+      <c r="H87" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -2030,8 +2790,17 @@
       <c r="E88" s="4">
         <v>529611449.67294395</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="5">
+        <v>3</v>
+      </c>
+      <c r="G88" s="5">
+        <v>6</v>
+      </c>
+      <c r="H88" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
@@ -2047,8 +2816,17 @@
       <c r="E89" s="4">
         <v>870294214.96648848</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="5">
+        <v>2</v>
+      </c>
+      <c r="G89" s="5">
+        <v>5</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
@@ -2064,8 +2842,17 @@
       <c r="E90" s="4">
         <v>642279795.99830294</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="5">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5">
+        <v>6</v>
+      </c>
+      <c r="H90" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -2081,8 +2868,17 @@
       <c r="E91" s="4">
         <v>989758383.58678484</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="5">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5">
+        <v>2</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
@@ -2098,8 +2894,17 @@
       <c r="E92" s="4">
         <v>1078945071.2721379</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="5">
+        <v>1</v>
+      </c>
+      <c r="G92" s="5">
+        <v>7</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +2920,17 @@
       <c r="E93" s="4">
         <v>964719626.79277205</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5">
+        <v>2</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -2132,8 +2946,17 @@
       <c r="E94" s="4">
         <v>928231199.90449595</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" s="5">
+        <v>2</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -2149,8 +2972,17 @@
       <c r="E95" s="4">
         <v>965992435.37967741</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -2166,8 +2998,17 @@
       <c r="E96" s="4">
         <v>1163860956.1578484</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="5">
+        <v>2</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>10</v>
       </c>
@@ -2183,8 +3024,17 @@
       <c r="E97" s="4">
         <v>1060401019.2764363</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="5">
+        <v>2</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -2200,8 +3050,17 @@
       <c r="E98" s="4">
         <v>45616750.061130136</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="5">
+        <v>14</v>
+      </c>
+      <c r="G98" s="5">
+        <v>9</v>
+      </c>
+      <c r="H98" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -2217,8 +3076,17 @@
       <c r="E99" s="4">
         <v>57010509.676196322</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="5">
+        <v>13</v>
+      </c>
+      <c r="G99" s="5">
+        <v>12</v>
+      </c>
+      <c r="H99" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
@@ -2234,8 +3102,17 @@
       <c r="E100" s="4">
         <v>53538444.430335507</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="5">
+        <v>13</v>
+      </c>
+      <c r="G100" s="5">
+        <v>8</v>
+      </c>
+      <c r="H100" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
@@ -2251,8 +3128,17 @@
       <c r="E101" s="4">
         <v>195178994.17992988</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="5">
+        <v>5</v>
+      </c>
+      <c r="G101" s="5">
+        <v>9</v>
+      </c>
+      <c r="H101" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2268,8 +3154,17 @@
       <c r="E102" s="4">
         <v>59756929.948489085</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="5">
+        <v>15</v>
+      </c>
+      <c r="G102" s="5">
+        <v>6</v>
+      </c>
+      <c r="H102" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -2285,8 +3180,17 @@
       <c r="E103" s="4">
         <v>74995091.316288367</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="5">
+        <v>14</v>
+      </c>
+      <c r="G103" s="5">
+        <v>9</v>
+      </c>
+      <c r="H103" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
@@ -2302,8 +3206,17 @@
       <c r="E104" s="4">
         <v>83366970.212274238</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="5">
+        <v>13</v>
+      </c>
+      <c r="G104" s="5">
+        <v>9</v>
+      </c>
+      <c r="H104" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -2319,8 +3232,17 @@
       <c r="E105" s="4">
         <v>64974209.467143029</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="5">
+        <v>15</v>
+      </c>
+      <c r="G105" s="5">
+        <v>17</v>
+      </c>
+      <c r="H105" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
@@ -2336,8 +3258,17 @@
       <c r="E106" s="4">
         <v>65236819.58080788</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="5">
+        <v>14</v>
+      </c>
+      <c r="G106" s="5">
+        <v>18</v>
+      </c>
+      <c r="H106" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -2353,8 +3284,17 @@
       <c r="E107" s="4">
         <v>80852929.511337787</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="5">
+        <v>15</v>
+      </c>
+      <c r="G107" s="5">
+        <v>17</v>
+      </c>
+      <c r="H107" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
@@ -2370,8 +3310,17 @@
       <c r="E108" s="4">
         <v>77413700.372971088</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="5">
+        <v>15</v>
+      </c>
+      <c r="G108" s="5">
+        <v>17</v>
+      </c>
+      <c r="H108" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
@@ -2387,8 +3336,17 @@
       <c r="E109" s="4">
         <v>45388984.540003739</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="5">
+        <v>16</v>
+      </c>
+      <c r="G109" s="5">
+        <v>17</v>
+      </c>
+      <c r="H109" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
@@ -2404,8 +3362,17 @@
       <c r="E110" s="4">
         <v>60716482.05184944</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="5">
+        <v>14</v>
+      </c>
+      <c r="G110" s="5">
+        <v>16</v>
+      </c>
+      <c r="H110" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -2421,8 +3388,17 @@
       <c r="E111" s="4">
         <v>160144497.62088221</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="5">
+        <v>13</v>
+      </c>
+      <c r="G111" s="5">
+        <v>16</v>
+      </c>
+      <c r="H111" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -2438,8 +3414,17 @@
       <c r="E112" s="4">
         <v>105049246.07057066</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="5">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5">
+        <v>13</v>
+      </c>
+      <c r="H112" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
@@ -2455,8 +3440,17 @@
       <c r="E113" s="4">
         <v>112678484.73346476</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="5">
+        <v>14</v>
+      </c>
+      <c r="G113" s="5">
+        <v>15</v>
+      </c>
+      <c r="H113" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
@@ -2472,8 +3466,17 @@
       <c r="E114" s="4">
         <v>54611307.067693777</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="5">
+        <v>12</v>
+      </c>
+      <c r="G114" s="5">
+        <v>8</v>
+      </c>
+      <c r="H114" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>12</v>
       </c>
@@ -2489,8 +3492,17 @@
       <c r="E115" s="4">
         <v>46279112.217135087</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="5">
+        <v>15</v>
+      </c>
+      <c r="G115" s="5">
+        <v>9</v>
+      </c>
+      <c r="H115" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
@@ -2506,8 +3518,17 @@
       <c r="E116" s="4">
         <v>83477954.263741121</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="5">
+        <v>9</v>
+      </c>
+      <c r="G116" s="5">
+        <v>11</v>
+      </c>
+      <c r="H116" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>12</v>
       </c>
@@ -2523,8 +3544,17 @@
       <c r="E117" s="4">
         <v>71233676.30931662</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="5">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5">
+        <v>13</v>
+      </c>
+      <c r="H117" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
@@ -2540,8 +3570,17 @@
       <c r="E118" s="4">
         <v>80828871.26724121</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="5">
+        <v>11</v>
+      </c>
+      <c r="G118" s="5">
+        <v>14</v>
+      </c>
+      <c r="H118" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
@@ -2557,8 +3596,17 @@
       <c r="E119" s="4">
         <v>613548565.23093867</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="5">
+        <v>2</v>
+      </c>
+      <c r="G119" s="5">
+        <v>14</v>
+      </c>
+      <c r="H119" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
@@ -2574,8 +3622,17 @@
       <c r="E120" s="4">
         <v>58762593.17883762</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="5">
+        <v>15</v>
+      </c>
+      <c r="G120" s="5">
+        <v>14</v>
+      </c>
+      <c r="H120" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
@@ -2591,8 +3648,17 @@
       <c r="E121" s="4">
         <v>113714823.23161806</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="5">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5">
+        <v>12</v>
+      </c>
+      <c r="H121" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2608,8 +3674,17 @@
       <c r="E122" s="4">
         <v>140677782.95528644</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="5">
+        <v>10</v>
+      </c>
+      <c r="G122" s="5">
+        <v>10</v>
+      </c>
+      <c r="H122" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -2625,8 +3700,17 @@
       <c r="E123" s="4">
         <v>152380568.97936749</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="5">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5">
+        <v>9</v>
+      </c>
+      <c r="H123" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
@@ -2642,8 +3726,17 @@
       <c r="E124" s="4">
         <v>306959132.77132154</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="5">
+        <v>10</v>
+      </c>
+      <c r="G124" s="5">
+        <v>2</v>
+      </c>
+      <c r="H124" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>12</v>
       </c>
@@ -2659,8 +3752,17 @@
       <c r="E125" s="4">
         <v>215860887.41590717</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="5">
+        <v>8</v>
+      </c>
+      <c r="G125" s="5">
+        <v>4</v>
+      </c>
+      <c r="H125" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>12</v>
       </c>
@@ -2676,8 +3778,17 @@
       <c r="E126" s="4">
         <v>176295473.61843437</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="5">
+        <v>11</v>
+      </c>
+      <c r="G126" s="5">
+        <v>10</v>
+      </c>
+      <c r="H126" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
@@ -2693,8 +3804,17 @@
       <c r="E127" s="4">
         <v>212491837.05302918</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="5">
+        <v>11</v>
+      </c>
+      <c r="G127" s="5">
+        <v>11</v>
+      </c>
+      <c r="H127" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -2710,8 +3830,17 @@
       <c r="E128" s="4">
         <v>261847553.28137705</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="5">
+        <v>10</v>
+      </c>
+      <c r="G128" s="5">
+        <v>7</v>
+      </c>
+      <c r="H128" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -2727,8 +3856,17 @@
       <c r="E129" s="4">
         <v>230459031.21000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="5">
+        <v>9</v>
+      </c>
+      <c r="G129" s="5">
+        <v>6</v>
+      </c>
+      <c r="H129" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>13</v>
       </c>
@@ -2744,8 +3882,17 @@
       <c r="E130" s="4">
         <v>194052609.04386932</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="5">
+        <v>2</v>
+      </c>
+      <c r="G130" s="5">
+        <v>12</v>
+      </c>
+      <c r="H130" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>13</v>
       </c>
@@ -2761,8 +3908,17 @@
       <c r="E131" s="4">
         <v>126881005.40993059</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="5">
+        <v>5</v>
+      </c>
+      <c r="G131" s="5">
+        <v>11</v>
+      </c>
+      <c r="H131" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>13</v>
       </c>
@@ -2778,8 +3934,17 @@
       <c r="E132" s="4">
         <v>151132944.85867509</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="5">
+        <v>6</v>
+      </c>
+      <c r="G132" s="5">
+        <v>10</v>
+      </c>
+      <c r="H132" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>13</v>
       </c>
@@ -2795,8 +3960,17 @@
       <c r="E133" s="4">
         <v>133152121.67677033</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="5">
+        <v>7</v>
+      </c>
+      <c r="G133" s="5">
+        <v>10</v>
+      </c>
+      <c r="H133" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>13</v>
       </c>
@@ -2812,8 +3986,17 @@
       <c r="E134" s="4">
         <v>174432695.39325738</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="5">
+        <v>6</v>
+      </c>
+      <c r="G134" s="5">
+        <v>5</v>
+      </c>
+      <c r="H134" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>13</v>
       </c>
@@ -2829,8 +4012,17 @@
       <c r="E135" s="4">
         <v>255335918.23781046</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="5">
+        <v>9</v>
+      </c>
+      <c r="G135" s="5">
+        <v>6</v>
+      </c>
+      <c r="H135" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>13</v>
       </c>
@@ -2846,8 +4038,17 @@
       <c r="E136" s="4">
         <v>858509209.24767423</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="5">
+        <v>2</v>
+      </c>
+      <c r="G136" s="5">
+        <v>13</v>
+      </c>
+      <c r="H136" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
@@ -2863,8 +4064,17 @@
       <c r="E137" s="4">
         <v>323326343.50295711</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="5">
+        <v>7</v>
+      </c>
+      <c r="G137" s="5">
+        <v>13</v>
+      </c>
+      <c r="H137" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>13</v>
       </c>
@@ -2880,8 +4090,17 @@
       <c r="E138" s="4">
         <v>334936471.08897799</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="5">
+        <v>7</v>
+      </c>
+      <c r="G138" s="5">
+        <v>11</v>
+      </c>
+      <c r="H138" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -2897,8 +4116,17 @@
       <c r="E139" s="4">
         <v>217853051.06017178</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="5">
+        <v>7</v>
+      </c>
+      <c r="G139" s="5">
+        <v>10</v>
+      </c>
+      <c r="H139" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>13</v>
       </c>
@@ -2914,8 +4142,17 @@
       <c r="E140" s="4">
         <v>375069256.48586851</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="5">
+        <v>6</v>
+      </c>
+      <c r="G140" s="5">
+        <v>13</v>
+      </c>
+      <c r="H140" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>13</v>
       </c>
@@ -2931,8 +4168,17 @@
       <c r="E141" s="4">
         <v>307050224.3580848</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="5">
+        <v>6</v>
+      </c>
+      <c r="G141" s="5">
+        <v>12</v>
+      </c>
+      <c r="H141" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -2948,8 +4194,17 @@
       <c r="E142" s="4">
         <v>350740783.70227081</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="5">
+        <v>6</v>
+      </c>
+      <c r="G142" s="5">
+        <v>12</v>
+      </c>
+      <c r="H142" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>13</v>
       </c>
@@ -2965,8 +4220,17 @@
       <c r="E143" s="4">
         <v>348819600.47344989</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="5">
+        <v>6</v>
+      </c>
+      <c r="G143" s="5">
+        <v>12</v>
+      </c>
+      <c r="H143" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -2982,8 +4246,17 @@
       <c r="E144" s="4">
         <v>522844293.73897302</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="5">
+        <v>7</v>
+      </c>
+      <c r="G144" s="5">
+        <v>14</v>
+      </c>
+      <c r="H144" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>13</v>
       </c>
@@ -2999,8 +4272,17 @@
       <c r="E145" s="4">
         <v>579997774.80750012</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="5">
+        <v>5</v>
+      </c>
+      <c r="G145" s="5">
+        <v>12</v>
+      </c>
+      <c r="H145" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>14</v>
       </c>
@@ -3016,8 +4298,17 @@
       <c r="E146" s="4">
         <v>20836080.343745433</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="5">
+        <v>18</v>
+      </c>
+      <c r="G146" s="5">
+        <v>10</v>
+      </c>
+      <c r="H146" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>14</v>
       </c>
@@ -3033,8 +4324,17 @@
       <c r="E147" s="4">
         <v>48169227.385704361</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="5">
+        <v>14</v>
+      </c>
+      <c r="G147" s="5">
+        <v>13</v>
+      </c>
+      <c r="H147" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>14</v>
       </c>
@@ -3050,8 +4350,17 @@
       <c r="E148" s="4">
         <v>47356441.448197238</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="5">
+        <v>14</v>
+      </c>
+      <c r="G148" s="5">
+        <v>11</v>
+      </c>
+      <c r="H148" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>14</v>
       </c>
@@ -3067,8 +4376,17 @@
       <c r="E149" s="4">
         <v>57602051.450156607</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="5">
+        <v>15</v>
+      </c>
+      <c r="G149" s="5">
+        <v>13</v>
+      </c>
+      <c r="H149" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>14</v>
       </c>
@@ -3084,8 +4402,17 @@
       <c r="E150" s="4">
         <v>75400462.69679521</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="5">
+        <v>12</v>
+      </c>
+      <c r="G150" s="5">
+        <v>14</v>
+      </c>
+      <c r="H150" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>14</v>
       </c>
@@ -3101,8 +4428,17 @@
       <c r="E151" s="4">
         <v>98507107.004740521</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="5">
+        <v>13</v>
+      </c>
+      <c r="G151" s="5">
+        <v>17</v>
+      </c>
+      <c r="H151" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>14</v>
       </c>
@@ -3118,8 +4454,17 @@
       <c r="E152" s="4">
         <v>122354955.45477206</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="5">
+        <v>10</v>
+      </c>
+      <c r="G152" s="5">
+        <v>16</v>
+      </c>
+      <c r="H152" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>14</v>
       </c>
@@ -3135,8 +4480,17 @@
       <c r="E153" s="4">
         <v>431846382.73515618</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="5">
+        <v>5</v>
+      </c>
+      <c r="G153" s="5">
+        <v>16</v>
+      </c>
+      <c r="H153" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>14</v>
       </c>
@@ -3152,8 +4506,17 @@
       <c r="E154" s="4">
         <v>100118028.48918769</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="5">
+        <v>13</v>
+      </c>
+      <c r="G154" s="5">
+        <v>16</v>
+      </c>
+      <c r="H154" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>14</v>
       </c>
@@ -3169,8 +4532,17 @@
       <c r="E155" s="4">
         <v>82764243.662532762</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="5">
+        <v>14</v>
+      </c>
+      <c r="G155" s="5">
+        <v>16</v>
+      </c>
+      <c r="H155" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>14</v>
       </c>
@@ -3186,8 +4558,17 @@
       <c r="E156" s="4">
         <v>120838402.47845416</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="5">
+        <v>13</v>
+      </c>
+      <c r="G156" s="5">
+        <v>16</v>
+      </c>
+      <c r="H156" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>14</v>
       </c>
@@ -3203,8 +4584,17 @@
       <c r="E157" s="4">
         <v>67668378.822587699</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="5">
+        <v>13</v>
+      </c>
+      <c r="G157" s="5">
+        <v>16</v>
+      </c>
+      <c r="H157" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>14</v>
       </c>
@@ -3220,8 +4610,17 @@
       <c r="E158" s="4">
         <v>64222001.703513652</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="5">
+        <v>13</v>
+      </c>
+      <c r="G158" s="5">
+        <v>15</v>
+      </c>
+      <c r="H158" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>14</v>
       </c>
@@ -3237,8 +4636,17 @@
       <c r="E159" s="4">
         <v>44695049.581898376</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="5">
+        <v>18</v>
+      </c>
+      <c r="G159" s="5">
+        <v>17</v>
+      </c>
+      <c r="H159" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>14</v>
       </c>
@@ -3254,8 +4662,17 @@
       <c r="E160" s="4">
         <v>54592219.96996668</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="5">
+        <v>17</v>
+      </c>
+      <c r="G160" s="5">
+        <v>16</v>
+      </c>
+      <c r="H160" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>14</v>
       </c>
@@ -3271,8 +4688,17 @@
       <c r="E161" s="4">
         <v>53787068.380251296</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="5">
+        <v>18</v>
+      </c>
+      <c r="G161" s="5">
+        <v>16</v>
+      </c>
+      <c r="H161" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>15</v>
       </c>
@@ -3288,8 +4714,17 @@
       <c r="E162" s="4">
         <v>136553962.69307664</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="5">
+        <v>6</v>
+      </c>
+      <c r="G162" s="5">
+        <v>3</v>
+      </c>
+      <c r="H162" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3305,8 +4740,17 @@
       <c r="E163" s="4">
         <v>115639864.78716627</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="5">
+        <v>6</v>
+      </c>
+      <c r="G163" s="5">
+        <v>15</v>
+      </c>
+      <c r="H163" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>15</v>
       </c>
@@ -3322,8 +4766,17 @@
       <c r="E164" s="4">
         <v>132347114.93141313</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="5">
+        <v>7</v>
+      </c>
+      <c r="G164" s="5">
+        <v>11</v>
+      </c>
+      <c r="H164" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>15</v>
       </c>
@@ -3339,8 +4792,17 @@
       <c r="E165" s="4">
         <v>189015427.62891361</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="5">
+        <v>6</v>
+      </c>
+      <c r="G165" s="5">
+        <v>8</v>
+      </c>
+      <c r="H165" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>15</v>
       </c>
@@ -3356,8 +4818,17 @@
       <c r="E166" s="4">
         <v>226188076.24413449</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="5">
+        <v>5</v>
+      </c>
+      <c r="G166" s="5">
+        <v>3</v>
+      </c>
+      <c r="H166" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>15</v>
       </c>
@@ -3373,8 +4844,17 @@
       <c r="E167" s="4">
         <v>368896918.32027572</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="5">
+        <v>7</v>
+      </c>
+      <c r="G167" s="5">
+        <v>4</v>
+      </c>
+      <c r="H167" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>15</v>
       </c>
@@ -3390,8 +4870,17 @@
       <c r="E168" s="4">
         <v>479414074.88420433</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="5">
+        <v>4</v>
+      </c>
+      <c r="G168" s="5">
+        <v>1</v>
+      </c>
+      <c r="H168" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>15</v>
       </c>
@@ -3407,8 +4896,17 @@
       <c r="E169" s="4">
         <v>437105795.09679317</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="5">
+        <v>4</v>
+      </c>
+      <c r="G169" s="5">
+        <v>3</v>
+      </c>
+      <c r="H169" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>15</v>
       </c>
@@ -3424,8 +4922,17 @@
       <c r="E170" s="4">
         <v>457601850.61170208</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="5">
+        <v>6</v>
+      </c>
+      <c r="G170" s="5">
+        <v>5</v>
+      </c>
+      <c r="H170" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>15</v>
       </c>
@@ -3441,8 +4948,17 @@
       <c r="E171" s="4">
         <v>416248842.95155329</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="5">
+        <v>4</v>
+      </c>
+      <c r="G171" s="5">
+        <v>5</v>
+      </c>
+      <c r="H171" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -3458,8 +4974,17 @@
       <c r="E172" s="4">
         <v>590831978.27945387</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="5">
+        <v>3</v>
+      </c>
+      <c r="G172" s="5">
+        <v>5</v>
+      </c>
+      <c r="H172" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>15</v>
       </c>
@@ -3475,8 +5000,17 @@
       <c r="E173" s="4">
         <v>551683741.90009081</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="5">
+        <v>5</v>
+      </c>
+      <c r="G173" s="5">
+        <v>5</v>
+      </c>
+      <c r="H173" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>15</v>
       </c>
@@ -3492,8 +5026,17 @@
       <c r="E174" s="4">
         <v>620192081.33214605</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="5">
+        <v>3</v>
+      </c>
+      <c r="G174" s="5">
+        <v>5</v>
+      </c>
+      <c r="H174" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>15</v>
       </c>
@@ -3509,8 +5052,17 @@
       <c r="E175" s="4">
         <v>610075692.55858767</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="5">
+        <v>3</v>
+      </c>
+      <c r="G175" s="5">
+        <v>7</v>
+      </c>
+      <c r="H175" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>15</v>
       </c>
@@ -3526,8 +5078,17 @@
       <c r="E176" s="4">
         <v>731012692.45149326</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="5">
+        <v>4</v>
+      </c>
+      <c r="G176" s="5">
+        <v>9</v>
+      </c>
+      <c r="H176" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>15</v>
       </c>
@@ -3543,8 +5104,17 @@
       <c r="E177" s="4">
         <v>851878623.16313899</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="5">
+        <v>3</v>
+      </c>
+      <c r="G177" s="5">
+        <v>5</v>
+      </c>
+      <c r="H177" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>16</v>
       </c>
@@ -3560,8 +5130,17 @@
       <c r="E178" s="4">
         <v>67089317.296059944</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="5">
+        <v>10</v>
+      </c>
+      <c r="G178" s="5">
+        <v>13</v>
+      </c>
+      <c r="H178" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>16</v>
       </c>
@@ -3577,8 +5156,17 @@
       <c r="E179" s="4">
         <v>65455661.698711671</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="5">
+        <v>10</v>
+      </c>
+      <c r="G179" s="5">
+        <v>14</v>
+      </c>
+      <c r="H179" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>16</v>
       </c>
@@ -3594,8 +5182,17 @@
       <c r="E180" s="4">
         <v>70757444.436174214</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="5">
+        <v>10</v>
+      </c>
+      <c r="G180" s="5">
+        <v>9</v>
+      </c>
+      <c r="H180" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>16</v>
       </c>
@@ -3611,8 +5208,17 @@
       <c r="E181" s="4">
         <v>104714401.91309056</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="5">
+        <v>8</v>
+      </c>
+      <c r="G181" s="5">
+        <v>2</v>
+      </c>
+      <c r="H181" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -3628,8 +5234,17 @@
       <c r="E182" s="4">
         <v>110141606.43073186</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="5">
+        <v>8</v>
+      </c>
+      <c r="G182" s="5">
+        <v>12</v>
+      </c>
+      <c r="H182" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3645,8 +5260,17 @@
       <c r="E183" s="4">
         <v>130675351.35462201</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="5">
+        <v>11</v>
+      </c>
+      <c r="G183" s="5">
+        <v>7</v>
+      </c>
+      <c r="H183" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -3662,8 +5286,17 @@
       <c r="E184" s="4">
         <v>128350498.54930198</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="5">
+        <v>9</v>
+      </c>
+      <c r="G184" s="5">
+        <v>10</v>
+      </c>
+      <c r="H184" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -3679,8 +5312,17 @@
       <c r="E185" s="4">
         <v>165863813.15223992</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="5">
+        <v>10</v>
+      </c>
+      <c r="G185" s="5">
+        <v>15</v>
+      </c>
+      <c r="H185" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -3696,8 +5338,17 @@
       <c r="E186" s="4">
         <v>194439658.8198899</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="5">
+        <v>9</v>
+      </c>
+      <c r="G186" s="5">
+        <v>9</v>
+      </c>
+      <c r="H186" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -3713,8 +5364,17 @@
       <c r="E187" s="4">
         <v>194979957.51628962</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="5">
+        <v>8</v>
+      </c>
+      <c r="G187" s="5">
+        <v>12</v>
+      </c>
+      <c r="H187" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -3730,8 +5390,17 @@
       <c r="E188" s="4">
         <v>191386347.23130998</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="5">
+        <v>8</v>
+      </c>
+      <c r="G188" s="5">
+        <v>11</v>
+      </c>
+      <c r="H188" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -3747,8 +5416,17 @@
       <c r="E189" s="4">
         <v>165589425.62201726</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="5">
+        <v>10</v>
+      </c>
+      <c r="G189" s="5">
+        <v>15</v>
+      </c>
+      <c r="H189" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -3764,8 +5442,17 @@
       <c r="E190" s="4">
         <v>185557210.20984152</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="5">
+        <v>9</v>
+      </c>
+      <c r="G190" s="5">
+        <v>17</v>
+      </c>
+      <c r="H190" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -3781,8 +5468,17 @@
       <c r="E191" s="4">
         <v>253643080.89102975</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="5">
+        <v>8</v>
+      </c>
+      <c r="G191" s="5">
+        <v>10</v>
+      </c>
+      <c r="H191" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -3798,8 +5494,17 @@
       <c r="E192" s="4">
         <v>273515760.3473444</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="5">
+        <v>11</v>
+      </c>
+      <c r="G192" s="5">
+        <v>2</v>
+      </c>
+      <c r="H192" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -3815,8 +5520,17 @@
       <c r="E193" s="4">
         <v>169837421.72711021</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="5">
+        <v>13</v>
+      </c>
+      <c r="G193" s="5">
+        <v>9</v>
+      </c>
+      <c r="H193" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
@@ -3832,8 +5546,17 @@
       <c r="E194" s="4">
         <v>54112029.340960264</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="5">
+        <v>13</v>
+      </c>
+      <c r="G194" s="5">
+        <v>5</v>
+      </c>
+      <c r="H194" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -3849,8 +5572,17 @@
       <c r="E195" s="4">
         <v>69910005.711999089</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="5">
+        <v>9</v>
+      </c>
+      <c r="G195" s="5">
+        <v>3</v>
+      </c>
+      <c r="H195" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -3866,8 +5598,17 @@
       <c r="E196" s="4">
         <v>69707647.595899716</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="5">
+        <v>11</v>
+      </c>
+      <c r="G196" s="5">
+        <v>4</v>
+      </c>
+      <c r="H196" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -3883,8 +5624,17 @@
       <c r="E197" s="4">
         <v>61803815.182032637</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="5">
+        <v>14</v>
+      </c>
+      <c r="G197" s="5">
+        <v>6</v>
+      </c>
+      <c r="H197" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>17</v>
       </c>
@@ -3900,8 +5650,17 @@
       <c r="E198" s="4">
         <v>68117376.714731708</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="5">
+        <v>13</v>
+      </c>
+      <c r="G198" s="5">
+        <v>2</v>
+      </c>
+      <c r="H198" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>17</v>
       </c>
@@ -3917,8 +5676,17 @@
       <c r="E199" s="4">
         <v>74150736.045517892</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="5">
+        <v>15</v>
+      </c>
+      <c r="G199" s="5">
+        <v>2</v>
+      </c>
+      <c r="H199" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>17</v>
       </c>
@@ -3934,8 +5702,17 @@
       <c r="E200" s="4">
         <v>96420114.566204235</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" s="5">
+        <v>11</v>
+      </c>
+      <c r="G200" s="5">
+        <v>2</v>
+      </c>
+      <c r="H200" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>17</v>
       </c>
@@ -3951,8 +5728,17 @@
       <c r="E201" s="4">
         <v>122422303.73992804</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" s="5">
+        <v>11</v>
+      </c>
+      <c r="G201" s="5">
+        <v>7</v>
+      </c>
+      <c r="H201" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>17</v>
       </c>
@@ -3968,8 +5754,17 @@
       <c r="E202" s="4">
         <v>735955394.87549186</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" s="5">
+        <v>2</v>
+      </c>
+      <c r="G202" s="5">
+        <v>4</v>
+      </c>
+      <c r="H202" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>17</v>
       </c>
@@ -3985,8 +5780,17 @@
       <c r="E203" s="4">
         <v>155955427.69314188</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" s="5">
+        <v>10</v>
+      </c>
+      <c r="G203" s="5">
+        <v>6</v>
+      </c>
+      <c r="H203" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>17</v>
       </c>
@@ -4002,8 +5806,17 @@
       <c r="E204" s="4">
         <v>167361675.43756583</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" s="5">
+        <v>11</v>
+      </c>
+      <c r="G204" s="5">
+        <v>9</v>
+      </c>
+      <c r="H204" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -4019,8 +5832,17 @@
       <c r="E205" s="4">
         <v>124173756.27895658</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" s="5">
+        <v>12</v>
+      </c>
+      <c r="G205" s="5">
+        <v>7</v>
+      </c>
+      <c r="H205" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>17</v>
       </c>
@@ -4036,8 +5858,17 @@
       <c r="E206" s="4">
         <v>126464789.983944</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" s="5">
+        <v>12</v>
+      </c>
+      <c r="G206" s="5">
+        <v>6</v>
+      </c>
+      <c r="H206" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>17</v>
       </c>
@@ -4053,8 +5884,17 @@
       <c r="E207" s="4">
         <v>121914189.24595733</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" s="5">
+        <v>15</v>
+      </c>
+      <c r="G207" s="5">
+        <v>5</v>
+      </c>
+      <c r="H207" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>17</v>
       </c>
@@ -4070,8 +5910,17 @@
       <c r="E208" s="4">
         <v>101800002.01962014</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" s="5">
+        <v>15</v>
+      </c>
+      <c r="G208" s="5">
+        <v>3</v>
+      </c>
+      <c r="H208" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>17</v>
       </c>
@@ -4087,8 +5936,17 @@
       <c r="E209" s="4">
         <v>196876673.81</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" s="5">
+        <v>11</v>
+      </c>
+      <c r="G209" s="5">
+        <v>3</v>
+      </c>
+      <c r="H209" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -4104,8 +5962,17 @@
       <c r="E210" s="4">
         <v>67072843.538935959</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" s="5">
+        <v>11</v>
+      </c>
+      <c r="G210" s="5">
+        <v>11</v>
+      </c>
+      <c r="H210" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>18</v>
       </c>
@@ -4121,8 +5988,17 @@
       <c r="E211" s="4">
         <v>65374626.504013203</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" s="5">
+        <v>11</v>
+      </c>
+      <c r="G211" s="5">
+        <v>8</v>
+      </c>
+      <c r="H211" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>18</v>
       </c>
@@ -4138,8 +6014,17 @@
       <c r="E212" s="4">
         <v>31615674.689542547</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" s="5">
+        <v>18</v>
+      </c>
+      <c r="G212" s="5">
+        <v>6</v>
+      </c>
+      <c r="H212" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>18</v>
       </c>
@@ -4155,8 +6040,17 @@
       <c r="E213" s="4">
         <v>28511216.066566642</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" s="5">
+        <v>18</v>
+      </c>
+      <c r="G213" s="5">
+        <v>12</v>
+      </c>
+      <c r="H213" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>18</v>
       </c>
@@ -4172,8 +6066,17 @@
       <c r="E214" s="4">
         <v>30383826.13135023</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" s="5">
+        <v>17</v>
+      </c>
+      <c r="G214" s="5">
+        <v>9</v>
+      </c>
+      <c r="H214" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>18</v>
       </c>
@@ -4189,8 +6092,17 @@
       <c r="E215" s="4">
         <v>23269297.944736678</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" s="5">
+        <v>18</v>
+      </c>
+      <c r="G215" s="5">
+        <v>10</v>
+      </c>
+      <c r="H215" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -4206,8 +6118,17 @@
       <c r="E216" s="4">
         <v>21334769.904716238</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" s="5">
+        <v>18</v>
+      </c>
+      <c r="G216" s="5">
+        <v>8</v>
+      </c>
+      <c r="H216" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>18</v>
       </c>
@@ -4223,8 +6144,17 @@
       <c r="E217" s="4">
         <v>27623151.355758019</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" s="5">
+        <v>18</v>
+      </c>
+      <c r="G217" s="5">
+        <v>9</v>
+      </c>
+      <c r="H217" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>18</v>
       </c>
@@ -4240,8 +6170,17 @@
       <c r="E218" s="4">
         <v>32433371.962868761</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" s="5">
+        <v>18</v>
+      </c>
+      <c r="G218" s="5">
+        <v>8</v>
+      </c>
+      <c r="H218" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>18</v>
       </c>
@@ -4257,8 +6196,17 @@
       <c r="E219" s="4">
         <v>35605307.903861836</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" s="5">
+        <v>18</v>
+      </c>
+      <c r="G219" s="5">
+        <v>11</v>
+      </c>
+      <c r="H219" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>18</v>
       </c>
@@ -4274,8 +6222,17 @@
       <c r="E220" s="4">
         <v>24715733.394117929</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" s="5">
+        <v>18</v>
+      </c>
+      <c r="G220" s="5">
+        <v>15</v>
+      </c>
+      <c r="H220" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>18</v>
       </c>
@@ -4291,8 +6248,17 @@
       <c r="E221" s="4">
         <v>21094526.453472503</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" s="5">
+        <v>18</v>
+      </c>
+      <c r="G221" s="5">
+        <v>14</v>
+      </c>
+      <c r="H221" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>18</v>
       </c>
@@ -4308,8 +6274,17 @@
       <c r="E222" s="4">
         <v>34651486.35949596</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" s="5">
+        <v>18</v>
+      </c>
+      <c r="G222" s="5">
+        <v>4</v>
+      </c>
+      <c r="H222" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>18</v>
       </c>
@@ -4325,8 +6300,17 @@
       <c r="E223" s="4">
         <v>216022672.15469268</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" s="5">
+        <v>10</v>
+      </c>
+      <c r="G223" s="5">
+        <v>15</v>
+      </c>
+      <c r="H223" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>18</v>
       </c>
@@ -4342,8 +6326,17 @@
       <c r="E224" s="4">
         <v>106743589.81898421</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" s="5">
+        <v>13</v>
+      </c>
+      <c r="G224" s="5">
+        <v>8</v>
+      </c>
+      <c r="H224" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>18</v>
       </c>
@@ -4359,8 +6352,17 @@
       <c r="E225" s="4">
         <v>62074278.530000009</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" s="5">
+        <v>17</v>
+      </c>
+      <c r="G225" s="5">
+        <v>14</v>
+      </c>
+      <c r="H225" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>19</v>
       </c>
@@ -4376,8 +6378,17 @@
       <c r="E226" s="4">
         <v>45031179.263368651</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" s="5">
+        <v>15</v>
+      </c>
+      <c r="G226" s="5">
+        <v>13</v>
+      </c>
+      <c r="H226" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>19</v>
       </c>
@@ -4393,8 +6404,17 @@
       <c r="E227" s="4">
         <v>40752152.087075241</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" s="5">
+        <v>18</v>
+      </c>
+      <c r="G227" s="5">
+        <v>16</v>
+      </c>
+      <c r="H227" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>19</v>
       </c>
@@ -4410,8 +6430,17 @@
       <c r="E228" s="4">
         <v>38029891.227302626</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" s="5">
+        <v>17</v>
+      </c>
+      <c r="G228" s="5">
+        <v>11</v>
+      </c>
+      <c r="H228" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>19</v>
       </c>
@@ -4427,8 +6456,17 @@
       <c r="E229" s="4">
         <v>55878059.666931331</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" s="5">
+        <v>16</v>
+      </c>
+      <c r="G229" s="5">
+        <v>4</v>
+      </c>
+      <c r="H229" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>19</v>
       </c>
@@ -4444,8 +6482,17 @@
       <c r="E230" s="4">
         <v>123998687.62330398</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" s="5">
+        <v>7</v>
+      </c>
+      <c r="G230" s="5">
+        <v>14</v>
+      </c>
+      <c r="H230" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>19</v>
       </c>
@@ -4461,8 +6508,17 @@
       <c r="E231" s="4">
         <v>159356489.84738225</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" s="5">
+        <v>12</v>
+      </c>
+      <c r="G231" s="5">
+        <v>1</v>
+      </c>
+      <c r="H231" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>19</v>
       </c>
@@ -4478,8 +6534,17 @@
       <c r="E232" s="4">
         <v>343136001.47597879</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" s="5">
+        <v>7</v>
+      </c>
+      <c r="G232" s="5">
+        <v>17</v>
+      </c>
+      <c r="H232" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>19</v>
       </c>
@@ -4495,8 +6560,17 @@
       <c r="E233" s="4">
         <v>507205501.5334022</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" s="5">
+        <v>9</v>
+      </c>
+      <c r="G233" s="5">
+        <v>1</v>
+      </c>
+      <c r="H233" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>19</v>
       </c>
@@ -4512,8 +6586,17 @@
       <c r="E234" s="4">
         <v>174969820.29477599</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" s="5">
+        <v>15</v>
+      </c>
+      <c r="G234" s="5">
+        <v>1</v>
+      </c>
+      <c r="H234" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>19</v>
       </c>
@@ -4529,8 +6612,17 @@
       <c r="E235" s="4">
         <v>299905798.91414738</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" s="5">
+        <v>6</v>
+      </c>
+      <c r="G235" s="5">
+        <v>1</v>
+      </c>
+      <c r="H235" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>19</v>
       </c>
@@ -4546,8 +6638,17 @@
       <c r="E236" s="4">
         <v>506212564.24736851</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" s="5">
+        <v>7</v>
+      </c>
+      <c r="G236" s="5">
+        <v>1</v>
+      </c>
+      <c r="H236" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>19</v>
       </c>
@@ -4563,8 +6664,17 @@
       <c r="E237" s="4">
         <v>479214586.21119708</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" s="5">
+        <v>7</v>
+      </c>
+      <c r="G237" s="5">
+        <v>1</v>
+      </c>
+      <c r="H237" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>19</v>
       </c>
@@ -4580,8 +6690,17 @@
       <c r="E238" s="4">
         <v>419636258.13103461</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" s="5">
+        <v>7</v>
+      </c>
+      <c r="G238" s="5">
+        <v>1</v>
+      </c>
+      <c r="H238" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>19</v>
       </c>
@@ -4597,8 +6716,17 @@
       <c r="E239" s="4">
         <v>260024183.43095869</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" s="5">
+        <v>9</v>
+      </c>
+      <c r="G239" s="5">
+        <v>4</v>
+      </c>
+      <c r="H239" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>19</v>
       </c>
@@ -4614,8 +6742,17 @@
       <c r="E240" s="4">
         <v>281794898.3660602</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" s="5">
+        <v>8</v>
+      </c>
+      <c r="G240" s="5">
+        <v>17</v>
+      </c>
+      <c r="H240" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>19</v>
       </c>
@@ -4631,8 +6768,17 @@
       <c r="E241" s="4">
         <v>583809040.10335755</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" s="5">
+        <v>7</v>
+      </c>
+      <c r="G241" s="5">
+        <v>1</v>
+      </c>
+      <c r="H241" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>20</v>
       </c>
@@ -4648,8 +6794,17 @@
       <c r="E242" s="4">
         <v>159530635.64980191</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" s="5">
+        <v>4</v>
+      </c>
+      <c r="G242" s="5">
+        <v>2</v>
+      </c>
+      <c r="H242" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>20</v>
       </c>
@@ -4665,8 +6820,17 @@
       <c r="E243" s="4">
         <v>104341139.99281168</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" s="5">
+        <v>7</v>
+      </c>
+      <c r="G243" s="5">
+        <v>1</v>
+      </c>
+      <c r="H243" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>20</v>
       </c>
@@ -4682,8 +6846,17 @@
       <c r="E244" s="4">
         <v>193805698.33275509</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" s="5">
+        <v>4</v>
+      </c>
+      <c r="G244" s="5">
+        <v>11</v>
+      </c>
+      <c r="H244" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>20</v>
       </c>
@@ -4699,8 +6872,17 @@
       <c r="E245" s="4">
         <v>213830843.79094619</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" s="5">
+        <v>4</v>
+      </c>
+      <c r="G245" s="5">
+        <v>13</v>
+      </c>
+      <c r="H245" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>20</v>
       </c>
@@ -4716,8 +6898,17 @@
       <c r="E246" s="4">
         <v>245187580.60084677</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" s="5">
+        <v>4</v>
+      </c>
+      <c r="G246" s="5">
+        <v>13</v>
+      </c>
+      <c r="H246" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>20</v>
       </c>
@@ -4733,8 +6924,17 @@
       <c r="E247" s="4">
         <v>440535517.8828814</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" s="5">
+        <v>5</v>
+      </c>
+      <c r="G247" s="5">
+        <v>15</v>
+      </c>
+      <c r="H247" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>20</v>
       </c>
@@ -4750,8 +6950,17 @@
       <c r="E248" s="4">
         <v>408687083.05006069</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" s="5">
+        <v>6</v>
+      </c>
+      <c r="G248" s="5">
+        <v>5</v>
+      </c>
+      <c r="H248" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>20</v>
       </c>
@@ -4767,8 +6976,17 @@
       <c r="E249" s="4">
         <v>668144816.45137227</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" s="5">
+        <v>3</v>
+      </c>
+      <c r="G249" s="5">
+        <v>8</v>
+      </c>
+      <c r="H249" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>20</v>
       </c>
@@ -4784,8 +7002,17 @@
       <c r="E250" s="4">
         <v>523344926.81842685</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" s="5">
+        <v>4</v>
+      </c>
+      <c r="G250" s="5">
+        <v>7</v>
+      </c>
+      <c r="H250" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>20</v>
       </c>
@@ -4801,8 +7028,17 @@
       <c r="E251" s="4">
         <v>533535505.7217924</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" s="5">
+        <v>3</v>
+      </c>
+      <c r="G251" s="5">
+        <v>7</v>
+      </c>
+      <c r="H251" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>20</v>
       </c>
@@ -4818,8 +7054,17 @@
       <c r="E252" s="4">
         <v>564899990.58991659</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" s="5">
+        <v>4</v>
+      </c>
+      <c r="G252" s="5">
+        <v>10</v>
+      </c>
+      <c r="H252" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>20</v>
       </c>
@@ -4835,8 +7080,17 @@
       <c r="E253" s="4">
         <v>556465221.12662876</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" s="5">
+        <v>4</v>
+      </c>
+      <c r="G253" s="5">
+        <v>8</v>
+      </c>
+      <c r="H253" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>20</v>
       </c>
@@ -4852,8 +7106,17 @@
       <c r="E254" s="4">
         <v>540438559.52676284</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" s="5">
+        <v>5</v>
+      </c>
+      <c r="G254" s="5">
+        <v>8</v>
+      </c>
+      <c r="H254" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>20</v>
       </c>
@@ -4869,8 +7132,17 @@
       <c r="E255" s="4">
         <v>365391897.38889647</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" s="5">
+        <v>5</v>
+      </c>
+      <c r="G255" s="5">
+        <v>8</v>
+      </c>
+      <c r="H255" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>20</v>
       </c>
@@ -4886,8 +7158,17 @@
       <c r="E256" s="4">
         <v>607460080.89789677</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" s="5">
+        <v>6</v>
+      </c>
+      <c r="G256" s="5">
+        <v>11</v>
+      </c>
+      <c r="H256" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>20</v>
       </c>
@@ -4903,8 +7184,17 @@
       <c r="E257" s="4">
         <v>511484217.83079982</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" s="5">
+        <v>6</v>
+      </c>
+      <c r="G257" s="5">
+        <v>10</v>
+      </c>
+      <c r="H257" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>21</v>
       </c>
@@ -4920,8 +7210,17 @@
       <c r="E258" s="4">
         <v>125760105.19325</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" s="5">
+        <v>7</v>
+      </c>
+      <c r="G258" s="5">
+        <v>13</v>
+      </c>
+      <c r="H258" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>21</v>
       </c>
@@ -4937,8 +7236,17 @@
       <c r="E259" s="4">
         <v>263955183.70990399</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" s="5">
+        <v>2</v>
+      </c>
+      <c r="G259" s="5">
+        <v>6</v>
+      </c>
+      <c r="H259" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>21</v>
       </c>
@@ -4954,8 +7262,17 @@
       <c r="E260" s="4">
         <v>258691586.34139514</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" s="5">
+        <v>2</v>
+      </c>
+      <c r="G260" s="5">
+        <v>3</v>
+      </c>
+      <c r="H260" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>21</v>
       </c>
@@ -4971,8 +7288,17 @@
       <c r="E261" s="4">
         <v>363683493.83498633</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" s="5">
+        <v>2</v>
+      </c>
+      <c r="G261" s="5">
+        <v>5</v>
+      </c>
+      <c r="H261" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>21</v>
       </c>
@@ -4988,8 +7314,17 @@
       <c r="E262" s="4">
         <v>327859691.60526645</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" s="5">
+        <v>3</v>
+      </c>
+      <c r="G262" s="5">
+        <v>10</v>
+      </c>
+      <c r="H262" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>21</v>
       </c>
@@ -5005,8 +7340,17 @@
       <c r="E263" s="4">
         <v>341897266.59925437</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" s="5">
+        <v>8</v>
+      </c>
+      <c r="G263" s="5">
+        <v>11</v>
+      </c>
+      <c r="H263" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>21</v>
       </c>
@@ -5022,8 +7366,17 @@
       <c r="E264" s="4">
         <v>459614268.29253721</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" s="5">
+        <v>5</v>
+      </c>
+      <c r="G264" s="5">
+        <v>7</v>
+      </c>
+      <c r="H264" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>21</v>
       </c>
@@ -5039,8 +7392,17 @@
       <c r="E265" s="4">
         <v>436038983.37028682</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" s="5">
+        <v>6</v>
+      </c>
+      <c r="G265" s="5">
+        <v>2</v>
+      </c>
+      <c r="H265" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>21</v>
       </c>
@@ -5056,8 +7418,17 @@
       <c r="E266" s="4">
         <v>474806668.3743645</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" s="5">
+        <v>5</v>
+      </c>
+      <c r="G266" s="5">
+        <v>2</v>
+      </c>
+      <c r="H266" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>21</v>
       </c>
@@ -5073,8 +7444,17 @@
       <c r="E267" s="4">
         <v>323069886.97178364</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" s="5">
+        <v>5</v>
+      </c>
+      <c r="G267" s="5">
+        <v>4</v>
+      </c>
+      <c r="H267" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>21</v>
       </c>
@@ -5090,8 +7470,17 @@
       <c r="E268" s="4">
         <v>492183560.56107962</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" s="5">
+        <v>5</v>
+      </c>
+      <c r="G268" s="5">
+        <v>3</v>
+      </c>
+      <c r="H268" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>21</v>
       </c>
@@ -5107,8 +7496,17 @@
       <c r="E269" s="4">
         <v>604004214.15172541</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" s="5">
+        <v>3</v>
+      </c>
+      <c r="G269" s="5">
+        <v>3</v>
+      </c>
+      <c r="H269" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>21</v>
       </c>
@@ -5124,8 +7522,17 @@
       <c r="E270" s="4">
         <v>581540397.34211969</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" s="5">
+        <v>4</v>
+      </c>
+      <c r="G270" s="5">
+        <v>3</v>
+      </c>
+      <c r="H270" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>21</v>
       </c>
@@ -5141,8 +7548,17 @@
       <c r="E271" s="4">
         <v>605118676.22677135</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" s="5">
+        <v>4</v>
+      </c>
+      <c r="G271" s="5">
+        <v>2</v>
+      </c>
+      <c r="H271" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>21</v>
       </c>
@@ -5158,8 +7574,17 @@
       <c r="E272" s="4">
         <v>755494385.6064986</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" s="5">
+        <v>3</v>
+      </c>
+      <c r="G272" s="5">
+        <v>5</v>
+      </c>
+      <c r="H272" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>21</v>
       </c>
@@ -5175,8 +7600,17 @@
       <c r="E273" s="4">
         <v>740768874.94999981</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" s="5">
+        <v>4</v>
+      </c>
+      <c r="G273" s="5">
+        <v>8</v>
+      </c>
+      <c r="H273" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>22</v>
       </c>
@@ -5192,8 +7626,17 @@
       <c r="E274" s="4">
         <v>73773630.349751115</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" s="5">
+        <v>9</v>
+      </c>
+      <c r="G274" s="5">
+        <v>13</v>
+      </c>
+      <c r="H274" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>22</v>
       </c>
@@ -5209,8 +7652,17 @@
       <c r="E275" s="4">
         <v>42448328.042323187</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" s="5">
+        <v>16</v>
+      </c>
+      <c r="G275" s="5">
+        <v>16</v>
+      </c>
+      <c r="H275" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>22</v>
       </c>
@@ -5226,8 +7678,17 @@
       <c r="E276" s="4">
         <v>43242381.036485955</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" s="5">
+        <v>15</v>
+      </c>
+      <c r="G276" s="5">
+        <v>11</v>
+      </c>
+      <c r="H276" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>22</v>
       </c>
@@ -5243,8 +7704,17 @@
       <c r="E277" s="4">
         <v>70880839.18787317</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" s="5">
+        <v>13</v>
+      </c>
+      <c r="G277" s="5">
+        <v>13</v>
+      </c>
+      <c r="H277" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>22</v>
       </c>
@@ -5260,8 +7730,17 @@
       <c r="E278" s="4">
         <v>39698013.707081035</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" s="5">
+        <v>16</v>
+      </c>
+      <c r="G278" s="5">
+        <v>14</v>
+      </c>
+      <c r="H278" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>22</v>
       </c>
@@ -5277,8 +7756,17 @@
       <c r="E279" s="4">
         <v>163501062.88580853</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" s="5">
+        <v>10</v>
+      </c>
+      <c r="G279" s="5">
+        <v>18</v>
+      </c>
+      <c r="H279" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>22</v>
       </c>
@@ -5294,8 +7782,17 @@
       <c r="E280" s="4">
         <v>219215244.4526161</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" s="5">
+        <v>8</v>
+      </c>
+      <c r="G280" s="5">
+        <v>17</v>
+      </c>
+      <c r="H280" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>22</v>
       </c>
@@ -5311,8 +7808,17 @@
       <c r="E281" s="4">
         <v>322215637.80451512</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" s="5">
+        <v>8</v>
+      </c>
+      <c r="G281" s="5">
+        <v>18</v>
+      </c>
+      <c r="H281" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>22</v>
       </c>
@@ -5328,8 +7834,17 @@
       <c r="E282" s="4">
         <v>243517234.90167528</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" s="5">
+        <v>8</v>
+      </c>
+      <c r="G282" s="5">
+        <v>17</v>
+      </c>
+      <c r="H282" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>22</v>
       </c>
@@ -5345,8 +7860,17 @@
       <c r="E283" s="4">
         <v>173539446.15632755</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" s="5">
+        <v>9</v>
+      </c>
+      <c r="G283" s="5">
+        <v>17</v>
+      </c>
+      <c r="H283" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>22</v>
       </c>
@@ -5362,8 +7886,17 @@
       <c r="E284" s="4">
         <v>172658503.09910026</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" s="5">
+        <v>9</v>
+      </c>
+      <c r="G284" s="5">
+        <v>17</v>
+      </c>
+      <c r="H284" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>22</v>
       </c>
@@ -5379,8 +7912,17 @@
       <c r="E285" s="4">
         <v>188813342.49153119</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" s="5">
+        <v>9</v>
+      </c>
+      <c r="G285" s="5">
+        <v>17</v>
+      </c>
+      <c r="H285" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>22</v>
       </c>
@@ -5396,8 +7938,17 @@
       <c r="E286" s="4">
         <v>179964439.59592155</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" s="5">
+        <v>10</v>
+      </c>
+      <c r="G286" s="5">
+        <v>17</v>
+      </c>
+      <c r="H286" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>22</v>
       </c>
@@ -5413,8 +7964,17 @@
       <c r="E287" s="4">
         <v>193873302.54782566</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" s="5">
+        <v>12</v>
+      </c>
+      <c r="G287" s="5">
+        <v>18</v>
+      </c>
+      <c r="H287" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>22</v>
       </c>
@@ -5430,8 +7990,17 @@
       <c r="E288" s="4">
         <v>265936456.88159037</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" s="5">
+        <v>9</v>
+      </c>
+      <c r="G288" s="5">
+        <v>18</v>
+      </c>
+      <c r="H288" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>22</v>
       </c>
@@ -5447,8 +8016,46 @@
       <c r="E289" s="4">
         <v>194065057.29999998</v>
       </c>
+      <c r="F289" s="5">
+        <v>10</v>
+      </c>
+      <c r="G289" s="5">
+        <v>17</v>
+      </c>
+      <c r="H289" s="5">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H289" xr:uid="{441DABB6-F277-45A4-B633-423809CAED4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H289">
+      <sortCondition ref="A1:A289"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="F2:F289">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H289">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Economic_vs_Military.xlsx
+++ b/Economic_vs_Military.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerri\Documents\GitHub\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21B9273-2D8F-41AE-8FFF-37C50B97E7E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57562910-BDEB-4940-B656-55A5390A732F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{147129B4-06D1-4295-BCA7-BDE72E3E9A23}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Economic&amp;Military breakout" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Economic&amp;Military breakout'!$A$1:$H$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Economic&amp;Military breakout'!$A$1:$E$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="23">
   <si>
     <t>Row Labels</t>
   </si>
@@ -104,9 +104,6 @@
   <si>
     <t>Zimbabwe</t>
   </si>
-  <si>
-    <t>Total</t>
-  </si>
 </sst>
 </file>
 
@@ -167,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,9 +174,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273EFB92-0071-4567-B37F-FE46B1F78C8C}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="J272" sqref="J272"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,12 +501,9 @@
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,17 +519,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -554,17 +536,8 @@
       <c r="E2" s="4">
         <v>165922662.62838554</v>
       </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -580,17 +553,8 @@
       <c r="E3" s="4">
         <v>215989414.30960298</v>
       </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -606,17 +570,8 @@
       <c r="E4" s="4">
         <v>152687271.9015792</v>
       </c>
-      <c r="F4" s="5">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -632,17 +587,8 @@
       <c r="E5" s="4">
         <v>83502515.100788504</v>
       </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -658,17 +604,8 @@
       <c r="E6" s="4">
         <v>96998944.347731233</v>
       </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -684,17 +621,8 @@
       <c r="E7" s="4">
         <v>62427827.609634444</v>
       </c>
-      <c r="F7" s="5">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -710,17 +638,8 @@
       <c r="E8" s="4">
         <v>65768859.160864957</v>
       </c>
-      <c r="F8" s="5">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -736,17 +655,8 @@
       <c r="E9" s="4">
         <v>61490919.143439025</v>
       </c>
-      <c r="F9" s="5">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -762,17 +672,8 @@
       <c r="E10" s="4">
         <v>111883100.03812057</v>
       </c>
-      <c r="F10" s="5">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -788,17 +689,8 @@
       <c r="E11" s="4">
         <v>89914817.860250622</v>
       </c>
-      <c r="F11" s="5">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -814,17 +706,8 @@
       <c r="E12" s="4">
         <v>79970967.380302444</v>
       </c>
-      <c r="F12" s="5">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5">
-        <v>14</v>
-      </c>
-      <c r="H12" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,17 +723,8 @@
       <c r="E13" s="4">
         <v>58307991.282264017</v>
       </c>
-      <c r="F13" s="5">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5">
-        <v>11</v>
-      </c>
-      <c r="H13" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -866,17 +740,8 @@
       <c r="E14" s="4">
         <v>57364444.726053253</v>
       </c>
-      <c r="F14" s="5">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -892,17 +757,8 @@
       <c r="E15" s="4">
         <v>60014510.897697337</v>
       </c>
-      <c r="F15" s="5">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5">
-        <v>13</v>
-      </c>
-      <c r="H15" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -918,17 +774,8 @@
       <c r="E16" s="4">
         <v>68303961.445663363</v>
       </c>
-      <c r="F16" s="5">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -944,17 +791,8 @@
       <c r="E17" s="4">
         <v>75594977.329999998</v>
       </c>
-      <c r="F17" s="5">
-        <v>15</v>
-      </c>
-      <c r="G17" s="5">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -970,17 +808,8 @@
       <c r="E18" s="4">
         <v>39452274.422038473</v>
       </c>
-      <c r="F18" s="5">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5">
-        <v>7</v>
-      </c>
-      <c r="H18" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -996,17 +825,8 @@
       <c r="E19" s="4">
         <v>41918257.181650661</v>
       </c>
-      <c r="F19" s="5">
-        <v>17</v>
-      </c>
-      <c r="G19" s="5">
-        <v>7</v>
-      </c>
-      <c r="H19" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1022,17 +842,8 @@
       <c r="E20" s="4">
         <v>40254255.836723156</v>
       </c>
-      <c r="F20" s="5">
-        <v>16</v>
-      </c>
-      <c r="G20" s="5">
-        <v>11</v>
-      </c>
-      <c r="H20" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1048,17 +859,8 @@
       <c r="E21" s="4">
         <v>30205618.252502467</v>
       </c>
-      <c r="F21" s="5">
-        <v>17</v>
-      </c>
-      <c r="G21" s="5">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1074,17 +876,8 @@
       <c r="E22" s="4">
         <v>23260981.735226978</v>
       </c>
-      <c r="F22" s="5">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5">
-        <v>11</v>
-      </c>
-      <c r="H22" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1100,17 +893,8 @@
       <c r="E23" s="4">
         <v>374900633.66939586</v>
       </c>
-      <c r="F23" s="5">
-        <v>6</v>
-      </c>
-      <c r="G23" s="5">
-        <v>12</v>
-      </c>
-      <c r="H23" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1126,17 +910,8 @@
       <c r="E24" s="4">
         <v>35178977.869556904</v>
       </c>
-      <c r="F24" s="5">
-        <v>17</v>
-      </c>
-      <c r="G24" s="5">
-        <v>15</v>
-      </c>
-      <c r="H24" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1152,17 +927,8 @@
       <c r="E25" s="4">
         <v>48275918.147508033</v>
       </c>
-      <c r="F25" s="5">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5">
-        <v>14</v>
-      </c>
-      <c r="H25" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1178,17 +944,8 @@
       <c r="E26" s="4">
         <v>51590437.497936167</v>
       </c>
-      <c r="F26" s="5">
-        <v>17</v>
-      </c>
-      <c r="G26" s="5">
-        <v>15</v>
-      </c>
-      <c r="H26" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1204,17 +961,8 @@
       <c r="E27" s="4">
         <v>49940097.234234892</v>
       </c>
-      <c r="F27" s="5">
-        <v>17</v>
-      </c>
-      <c r="G27" s="5">
-        <v>14</v>
-      </c>
-      <c r="H27" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1230,17 +978,8 @@
       <c r="E28" s="4">
         <v>46922081.099438973</v>
       </c>
-      <c r="F28" s="5">
-        <v>16</v>
-      </c>
-      <c r="G28" s="5">
-        <v>12</v>
-      </c>
-      <c r="H28" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1256,17 +995,8 @@
       <c r="E29" s="4">
         <v>23394117.447255578</v>
       </c>
-      <c r="F29" s="5">
-        <v>17</v>
-      </c>
-      <c r="G29" s="5">
-        <v>13</v>
-      </c>
-      <c r="H29" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1282,17 +1012,8 @@
       <c r="E30" s="4">
         <v>48932588.145375967</v>
       </c>
-      <c r="F30" s="5">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5">
-        <v>14</v>
-      </c>
-      <c r="H30" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1308,17 +1029,8 @@
       <c r="E31" s="4">
         <v>116355567.07564598</v>
       </c>
-      <c r="F31" s="5">
-        <v>14</v>
-      </c>
-      <c r="G31" s="5">
-        <v>9</v>
-      </c>
-      <c r="H31" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1334,17 +1046,8 @@
       <c r="E32" s="4">
         <v>37552762.781778581</v>
       </c>
-      <c r="F32" s="5">
-        <v>18</v>
-      </c>
-      <c r="G32" s="5">
-        <v>10</v>
-      </c>
-      <c r="H32" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1360,17 +1063,8 @@
       <c r="E33" s="4">
         <v>418818416.43000001</v>
       </c>
-      <c r="F33" s="5">
-        <v>8</v>
-      </c>
-      <c r="G33" s="5">
-        <v>7</v>
-      </c>
-      <c r="H33" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1386,17 +1080,8 @@
       <c r="E34" s="4">
         <v>29496275.848467629</v>
       </c>
-      <c r="F34" s="5">
-        <v>17</v>
-      </c>
-      <c r="G34" s="5">
-        <v>13</v>
-      </c>
-      <c r="H34" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1412,17 +1097,8 @@
       <c r="E35" s="4">
         <v>62839522.556204423</v>
       </c>
-      <c r="F35" s="5">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5">
-        <v>16</v>
-      </c>
-      <c r="H35" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,17 +1114,8 @@
       <c r="E36" s="4">
         <v>62044874.813534424</v>
       </c>
-      <c r="F36" s="5">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5">
-        <v>11</v>
-      </c>
-      <c r="H36" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1464,17 +1131,8 @@
       <c r="E37" s="4">
         <v>72726136.320949525</v>
       </c>
-      <c r="F37" s="5">
-        <v>11</v>
-      </c>
-      <c r="G37" s="5">
-        <v>13</v>
-      </c>
-      <c r="H37" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1490,17 +1148,8 @@
       <c r="E38" s="4">
         <v>63551434.580908991</v>
       </c>
-      <c r="F38" s="5">
-        <v>14</v>
-      </c>
-      <c r="G38" s="5">
-        <v>8</v>
-      </c>
-      <c r="H38" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1516,17 +1165,8 @@
       <c r="E39" s="4">
         <v>39446739.065563813</v>
       </c>
-      <c r="F39" s="5">
-        <v>17</v>
-      </c>
-      <c r="G39" s="5">
-        <v>13</v>
-      </c>
-      <c r="H39" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1542,17 +1182,8 @@
       <c r="E40" s="4">
         <v>35610792.052000001</v>
       </c>
-      <c r="F40" s="5">
-        <v>16</v>
-      </c>
-      <c r="G40" s="5">
-        <v>12</v>
-      </c>
-      <c r="H40" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1568,17 +1199,8 @@
       <c r="E41" s="4">
         <v>68305885.699158013</v>
       </c>
-      <c r="F41" s="5">
-        <v>14</v>
-      </c>
-      <c r="G41" s="5">
-        <v>10</v>
-      </c>
-      <c r="H41" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1594,17 +1216,8 @@
       <c r="E42" s="4">
         <v>57405970.387803338</v>
       </c>
-      <c r="F42" s="5">
-        <v>16</v>
-      </c>
-      <c r="G42" s="5">
-        <v>13</v>
-      </c>
-      <c r="H42" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1620,17 +1233,8 @@
       <c r="E43" s="4">
         <v>75726401.446820155</v>
       </c>
-      <c r="F43" s="5">
-        <v>16</v>
-      </c>
-      <c r="G43" s="5">
-        <v>3</v>
-      </c>
-      <c r="H43" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1646,17 +1250,8 @@
       <c r="E44" s="4">
         <v>61404430.849669881</v>
       </c>
-      <c r="F44" s="5">
-        <v>17</v>
-      </c>
-      <c r="G44" s="5">
-        <v>4</v>
-      </c>
-      <c r="H44" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1672,17 +1267,8 @@
       <c r="E45" s="4">
         <v>57479174.722884186</v>
       </c>
-      <c r="F45" s="5">
-        <v>15</v>
-      </c>
-      <c r="G45" s="5">
-        <v>6</v>
-      </c>
-      <c r="H45" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -1698,17 +1284,8 @@
       <c r="E46" s="4">
         <v>39945129.906750835</v>
       </c>
-      <c r="F46" s="5">
-        <v>17</v>
-      </c>
-      <c r="G46" s="5">
-        <v>11</v>
-      </c>
-      <c r="H46" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1724,17 +1301,8 @@
       <c r="E47" s="4">
         <v>50938858.481991246</v>
       </c>
-      <c r="F47" s="5">
-        <v>17</v>
-      </c>
-      <c r="G47" s="5">
-        <v>14</v>
-      </c>
-      <c r="H47" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1750,17 +1318,8 @@
       <c r="E48" s="4">
         <v>72334353.137238503</v>
       </c>
-      <c r="F48" s="5">
-        <v>14</v>
-      </c>
-      <c r="G48" s="5">
-        <v>15</v>
-      </c>
-      <c r="H48" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1776,17 +1335,8 @@
       <c r="E49" s="4">
         <v>68477211.001159012</v>
       </c>
-      <c r="F49" s="5">
-        <v>16</v>
-      </c>
-      <c r="G49" s="5">
-        <v>17</v>
-      </c>
-      <c r="H49" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1802,17 +1352,8 @@
       <c r="E50" s="4">
         <v>200332785.75808239</v>
       </c>
-      <c r="F50" s="5">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>4</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
@@ -1828,17 +1369,8 @@
       <c r="E51" s="4">
         <v>801291287.599558</v>
       </c>
-      <c r="F51" s="5">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>2</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1854,17 +1386,8 @@
       <c r="E52" s="4">
         <v>469527773.38788229</v>
       </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>2</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1880,17 +1403,8 @@
       <c r="E53" s="4">
         <v>840836346.12875915</v>
       </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1906,17 +1420,8 @@
       <c r="E54" s="4">
         <v>368773783.69630486</v>
       </c>
-      <c r="F54" s="5">
-        <v>2</v>
-      </c>
-      <c r="G54" s="5">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>8</v>
       </c>
@@ -1932,17 +1437,8 @@
       <c r="E55" s="4">
         <v>487068332.45703971</v>
       </c>
-      <c r="F55" s="5">
-        <v>4</v>
-      </c>
-      <c r="G55" s="5">
-        <v>3</v>
-      </c>
-      <c r="H55" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1958,17 +1454,8 @@
       <c r="E56" s="4">
         <v>1060346974.7980808</v>
       </c>
-      <c r="F56" s="5">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <v>4</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -1984,17 +1471,8 @@
       <c r="E57" s="4">
         <v>977018632.13834131</v>
       </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
-        <v>6</v>
-      </c>
-      <c r="H57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -2010,17 +1488,8 @@
       <c r="E58" s="4">
         <v>932198906.78787684</v>
       </c>
-      <c r="F58" s="5">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
-        <v>14</v>
-      </c>
-      <c r="H58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -2036,17 +1505,8 @@
       <c r="E59" s="4">
         <v>763313455.71015406</v>
       </c>
-      <c r="F59" s="5">
-        <v>2</v>
-      </c>
-      <c r="G59" s="5">
-        <v>13</v>
-      </c>
-      <c r="H59" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2062,17 +1522,8 @@
       <c r="E60" s="4">
         <v>864741985.60868132</v>
       </c>
-      <c r="F60" s="5">
-        <v>2</v>
-      </c>
-      <c r="G60" s="5">
-        <v>6</v>
-      </c>
-      <c r="H60" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -2088,17 +1539,8 @@
       <c r="E61" s="4">
         <v>772374940.35651588</v>
       </c>
-      <c r="F61" s="5">
-        <v>2</v>
-      </c>
-      <c r="G61" s="5">
-        <v>10</v>
-      </c>
-      <c r="H61" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -2114,17 +1556,8 @@
       <c r="E62" s="4">
         <v>772079325.1579442</v>
       </c>
-      <c r="F62" s="5">
-        <v>2</v>
-      </c>
-      <c r="G62" s="5">
-        <v>7</v>
-      </c>
-      <c r="H62" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -2140,17 +1573,8 @@
       <c r="E63" s="4">
         <v>832351844.04051602</v>
       </c>
-      <c r="F63" s="5">
-        <v>2</v>
-      </c>
-      <c r="G63" s="5">
-        <v>3</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -2166,17 +1590,8 @@
       <c r="E64" s="4">
         <v>1130434925.6029224</v>
       </c>
-      <c r="F64" s="5">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
-        <v>6</v>
-      </c>
-      <c r="H64" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
@@ -2192,17 +1607,8 @@
       <c r="E65" s="4">
         <v>1102958376.5262439</v>
       </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
-        <v>11</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2218,17 +1624,8 @@
       <c r="E66" s="4">
         <v>94395125.073825672</v>
       </c>
-      <c r="F66" s="5">
-        <v>8</v>
-      </c>
-      <c r="G66" s="5">
-        <v>6</v>
-      </c>
-      <c r="H66" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
@@ -2244,17 +1641,8 @@
       <c r="E67" s="4">
         <v>95687339.120811433</v>
       </c>
-      <c r="F67" s="5">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5">
-        <v>5</v>
-      </c>
-      <c r="H67" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -2270,17 +1658,8 @@
       <c r="E68" s="4">
         <v>109935916.04721117</v>
       </c>
-      <c r="F68" s="5">
-        <v>8</v>
-      </c>
-      <c r="G68" s="5">
-        <v>5</v>
-      </c>
-      <c r="H68" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -2296,17 +1675,8 @@
       <c r="E69" s="4">
         <v>92334860.896959811</v>
       </c>
-      <c r="F69" s="5">
-        <v>9</v>
-      </c>
-      <c r="G69" s="5">
-        <v>7</v>
-      </c>
-      <c r="H69" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2322,17 +1692,8 @@
       <c r="E70" s="4">
         <v>109997307.07501365</v>
       </c>
-      <c r="F70" s="5">
-        <v>9</v>
-      </c>
-      <c r="G70" s="5">
-        <v>4</v>
-      </c>
-      <c r="H70" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -2348,17 +1709,8 @@
       <c r="E71" s="4">
         <v>689762457.13710952</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5">
-        <v>5</v>
-      </c>
-      <c r="H71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -2374,17 +1726,8 @@
       <c r="E72" s="4">
         <v>85707525.650369138</v>
       </c>
-      <c r="F72" s="5">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5">
-        <v>3</v>
-      </c>
-      <c r="H72" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -2400,17 +1743,8 @@
       <c r="E73" s="4">
         <v>110853751.19750704</v>
       </c>
-      <c r="F73" s="5">
-        <v>13</v>
-      </c>
-      <c r="G73" s="5">
-        <v>4</v>
-      </c>
-      <c r="H73" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -2426,17 +1760,8 @@
       <c r="E74" s="4">
         <v>123290151.89098635</v>
       </c>
-      <c r="F74" s="5">
-        <v>11</v>
-      </c>
-      <c r="G74" s="5">
-        <v>3</v>
-      </c>
-      <c r="H74" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -2452,17 +1777,8 @@
       <c r="E75" s="4">
         <v>153661169.69827455</v>
       </c>
-      <c r="F75" s="5">
-        <v>11</v>
-      </c>
-      <c r="G75" s="5">
-        <v>8</v>
-      </c>
-      <c r="H75" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -2478,17 +1794,8 @@
       <c r="E76" s="4">
         <v>161156555.68764636</v>
       </c>
-      <c r="F76" s="5">
-        <v>12</v>
-      </c>
-      <c r="G76" s="5">
-        <v>8</v>
-      </c>
-      <c r="H76" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -2504,17 +1811,8 @@
       <c r="E77" s="4">
         <v>149389749.94649741</v>
       </c>
-      <c r="F77" s="5">
-        <v>11</v>
-      </c>
-      <c r="G77" s="5">
-        <v>9</v>
-      </c>
-      <c r="H77" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -2530,17 +1828,8 @@
       <c r="E78" s="4">
         <v>192095453.37745893</v>
       </c>
-      <c r="F78" s="5">
-        <v>8</v>
-      </c>
-      <c r="G78" s="5">
-        <v>9</v>
-      </c>
-      <c r="H78" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,17 +1845,8 @@
       <c r="E79" s="4">
         <v>298606088.26476097</v>
       </c>
-      <c r="F79" s="5">
-        <v>7</v>
-      </c>
-      <c r="G79" s="5">
-        <v>6</v>
-      </c>
-      <c r="H79" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -2582,17 +1862,8 @@
       <c r="E80" s="4">
         <v>723894184.17302692</v>
       </c>
-      <c r="F80" s="5">
-        <v>5</v>
-      </c>
-      <c r="G80" s="5">
-        <v>4</v>
-      </c>
-      <c r="H80" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2608,17 +1879,8 @@
       <c r="E81" s="4">
         <v>184267994.98000002</v>
       </c>
-      <c r="F81" s="5">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5">
-        <v>4</v>
-      </c>
-      <c r="H81" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2634,17 +1896,8 @@
       <c r="E82" s="4">
         <v>150540358.19875789</v>
       </c>
-      <c r="F82" s="5">
-        <v>5</v>
-      </c>
-      <c r="G82" s="5">
-        <v>1</v>
-      </c>
-      <c r="H82" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>10</v>
       </c>
@@ -2660,17 +1913,8 @@
       <c r="E83" s="4">
         <v>137003112.80936453</v>
       </c>
-      <c r="F83" s="5">
-        <v>4</v>
-      </c>
-      <c r="G83" s="5">
-        <v>4</v>
-      </c>
-      <c r="H83" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
@@ -2686,17 +1930,8 @@
       <c r="E84" s="4">
         <v>210433589.58314818</v>
       </c>
-      <c r="F84" s="5">
-        <v>3</v>
-      </c>
-      <c r="G84" s="5">
-        <v>1</v>
-      </c>
-      <c r="H84" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -2712,17 +1947,8 @@
       <c r="E85" s="4">
         <v>281399369.6686464</v>
       </c>
-      <c r="F85" s="5">
-        <v>3</v>
-      </c>
-      <c r="G85" s="5">
-        <v>3</v>
-      </c>
-      <c r="H85" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
@@ -2738,17 +1964,8 @@
       <c r="E86" s="4">
         <v>412057962.0630669</v>
       </c>
-      <c r="F86" s="5">
-        <v>1</v>
-      </c>
-      <c r="G86" s="5">
-        <v>14</v>
-      </c>
-      <c r="H86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -2764,17 +1981,8 @@
       <c r="E87" s="4">
         <v>490730964.84235358</v>
       </c>
-      <c r="F87" s="5">
-        <v>3</v>
-      </c>
-      <c r="G87" s="5">
-        <v>16</v>
-      </c>
-      <c r="H87" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -2790,17 +1998,8 @@
       <c r="E88" s="4">
         <v>529611449.67294395</v>
       </c>
-      <c r="F88" s="5">
-        <v>3</v>
-      </c>
-      <c r="G88" s="5">
-        <v>6</v>
-      </c>
-      <c r="H88" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
@@ -2816,17 +2015,8 @@
       <c r="E89" s="4">
         <v>870294214.96648848</v>
       </c>
-      <c r="F89" s="5">
-        <v>2</v>
-      </c>
-      <c r="G89" s="5">
-        <v>5</v>
-      </c>
-      <c r="H89" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
@@ -2842,17 +2032,8 @@
       <c r="E90" s="4">
         <v>642279795.99830294</v>
       </c>
-      <c r="F90" s="5">
-        <v>3</v>
-      </c>
-      <c r="G90" s="5">
-        <v>6</v>
-      </c>
-      <c r="H90" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -2868,17 +2049,8 @@
       <c r="E91" s="4">
         <v>989758383.58678484</v>
       </c>
-      <c r="F91" s="5">
-        <v>1</v>
-      </c>
-      <c r="G91" s="5">
-        <v>2</v>
-      </c>
-      <c r="H91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
@@ -2894,17 +2066,8 @@
       <c r="E92" s="4">
         <v>1078945071.2721379</v>
       </c>
-      <c r="F92" s="5">
-        <v>1</v>
-      </c>
-      <c r="G92" s="5">
-        <v>7</v>
-      </c>
-      <c r="H92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
@@ -2920,17 +2083,8 @@
       <c r="E93" s="4">
         <v>964719626.79277205</v>
       </c>
-      <c r="F93" s="5">
-        <v>1</v>
-      </c>
-      <c r="G93" s="5">
-        <v>2</v>
-      </c>
-      <c r="H93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -2946,17 +2100,8 @@
       <c r="E94" s="4">
         <v>928231199.90449595</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5">
-        <v>2</v>
-      </c>
-      <c r="H94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -2972,17 +2117,8 @@
       <c r="E95" s="4">
         <v>965992435.37967741</v>
       </c>
-      <c r="F95" s="5">
-        <v>1</v>
-      </c>
-      <c r="G95" s="5">
-        <v>1</v>
-      </c>
-      <c r="H95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -2998,17 +2134,8 @@
       <c r="E96" s="4">
         <v>1163860956.1578484</v>
       </c>
-      <c r="F96" s="5">
-        <v>2</v>
-      </c>
-      <c r="G96" s="5">
-        <v>1</v>
-      </c>
-      <c r="H96" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>10</v>
       </c>
@@ -3024,17 +2151,8 @@
       <c r="E97" s="4">
         <v>1060401019.2764363</v>
       </c>
-      <c r="F97" s="5">
-        <v>2</v>
-      </c>
-      <c r="G97" s="5">
-        <v>2</v>
-      </c>
-      <c r="H97" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -3050,17 +2168,8 @@
       <c r="E98" s="4">
         <v>45616750.061130136</v>
       </c>
-      <c r="F98" s="5">
-        <v>14</v>
-      </c>
-      <c r="G98" s="5">
-        <v>9</v>
-      </c>
-      <c r="H98" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -3076,17 +2185,8 @@
       <c r="E99" s="4">
         <v>57010509.676196322</v>
       </c>
-      <c r="F99" s="5">
-        <v>13</v>
-      </c>
-      <c r="G99" s="5">
-        <v>12</v>
-      </c>
-      <c r="H99" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
@@ -3102,17 +2202,8 @@
       <c r="E100" s="4">
         <v>53538444.430335507</v>
       </c>
-      <c r="F100" s="5">
-        <v>13</v>
-      </c>
-      <c r="G100" s="5">
-        <v>8</v>
-      </c>
-      <c r="H100" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
@@ -3128,17 +2219,8 @@
       <c r="E101" s="4">
         <v>195178994.17992988</v>
       </c>
-      <c r="F101" s="5">
-        <v>5</v>
-      </c>
-      <c r="G101" s="5">
-        <v>9</v>
-      </c>
-      <c r="H101" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -3154,17 +2236,8 @@
       <c r="E102" s="4">
         <v>59756929.948489085</v>
       </c>
-      <c r="F102" s="5">
-        <v>15</v>
-      </c>
-      <c r="G102" s="5">
-        <v>6</v>
-      </c>
-      <c r="H102" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -3180,17 +2253,8 @@
       <c r="E103" s="4">
         <v>74995091.316288367</v>
       </c>
-      <c r="F103" s="5">
-        <v>14</v>
-      </c>
-      <c r="G103" s="5">
-        <v>9</v>
-      </c>
-      <c r="H103" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
@@ -3206,17 +2270,8 @@
       <c r="E104" s="4">
         <v>83366970.212274238</v>
       </c>
-      <c r="F104" s="5">
-        <v>13</v>
-      </c>
-      <c r="G104" s="5">
-        <v>9</v>
-      </c>
-      <c r="H104" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -3232,17 +2287,8 @@
       <c r="E105" s="4">
         <v>64974209.467143029</v>
       </c>
-      <c r="F105" s="5">
-        <v>15</v>
-      </c>
-      <c r="G105" s="5">
-        <v>17</v>
-      </c>
-      <c r="H105" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>11</v>
       </c>
@@ -3258,17 +2304,8 @@
       <c r="E106" s="4">
         <v>65236819.58080788</v>
       </c>
-      <c r="F106" s="5">
-        <v>14</v>
-      </c>
-      <c r="G106" s="5">
-        <v>18</v>
-      </c>
-      <c r="H106" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -3284,17 +2321,8 @@
       <c r="E107" s="4">
         <v>80852929.511337787</v>
       </c>
-      <c r="F107" s="5">
-        <v>15</v>
-      </c>
-      <c r="G107" s="5">
-        <v>17</v>
-      </c>
-      <c r="H107" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
@@ -3310,17 +2338,8 @@
       <c r="E108" s="4">
         <v>77413700.372971088</v>
       </c>
-      <c r="F108" s="5">
-        <v>15</v>
-      </c>
-      <c r="G108" s="5">
-        <v>17</v>
-      </c>
-      <c r="H108" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
@@ -3336,17 +2355,8 @@
       <c r="E109" s="4">
         <v>45388984.540003739</v>
       </c>
-      <c r="F109" s="5">
-        <v>16</v>
-      </c>
-      <c r="G109" s="5">
-        <v>17</v>
-      </c>
-      <c r="H109" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
@@ -3362,17 +2372,8 @@
       <c r="E110" s="4">
         <v>60716482.05184944</v>
       </c>
-      <c r="F110" s="5">
-        <v>14</v>
-      </c>
-      <c r="G110" s="5">
-        <v>16</v>
-      </c>
-      <c r="H110" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -3388,17 +2389,8 @@
       <c r="E111" s="4">
         <v>160144497.62088221</v>
       </c>
-      <c r="F111" s="5">
-        <v>13</v>
-      </c>
-      <c r="G111" s="5">
-        <v>16</v>
-      </c>
-      <c r="H111" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -3414,17 +2406,8 @@
       <c r="E112" s="4">
         <v>105049246.07057066</v>
       </c>
-      <c r="F112" s="5">
-        <v>12</v>
-      </c>
-      <c r="G112" s="5">
-        <v>13</v>
-      </c>
-      <c r="H112" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
@@ -3440,17 +2423,8 @@
       <c r="E113" s="4">
         <v>112678484.73346476</v>
       </c>
-      <c r="F113" s="5">
-        <v>14</v>
-      </c>
-      <c r="G113" s="5">
-        <v>15</v>
-      </c>
-      <c r="H113" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
@@ -3466,17 +2440,8 @@
       <c r="E114" s="4">
         <v>54611307.067693777</v>
       </c>
-      <c r="F114" s="5">
-        <v>12</v>
-      </c>
-      <c r="G114" s="5">
-        <v>8</v>
-      </c>
-      <c r="H114" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>12</v>
       </c>
@@ -3492,17 +2457,8 @@
       <c r="E115" s="4">
         <v>46279112.217135087</v>
       </c>
-      <c r="F115" s="5">
-        <v>15</v>
-      </c>
-      <c r="G115" s="5">
-        <v>9</v>
-      </c>
-      <c r="H115" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
@@ -3518,17 +2474,8 @@
       <c r="E116" s="4">
         <v>83477954.263741121</v>
       </c>
-      <c r="F116" s="5">
-        <v>9</v>
-      </c>
-      <c r="G116" s="5">
-        <v>11</v>
-      </c>
-      <c r="H116" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>12</v>
       </c>
@@ -3544,17 +2491,8 @@
       <c r="E117" s="4">
         <v>71233676.30931662</v>
       </c>
-      <c r="F117" s="5">
-        <v>12</v>
-      </c>
-      <c r="G117" s="5">
-        <v>13</v>
-      </c>
-      <c r="H117" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
@@ -3570,17 +2508,8 @@
       <c r="E118" s="4">
         <v>80828871.26724121</v>
       </c>
-      <c r="F118" s="5">
-        <v>11</v>
-      </c>
-      <c r="G118" s="5">
-        <v>14</v>
-      </c>
-      <c r="H118" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
@@ -3596,17 +2525,8 @@
       <c r="E119" s="4">
         <v>613548565.23093867</v>
       </c>
-      <c r="F119" s="5">
-        <v>2</v>
-      </c>
-      <c r="G119" s="5">
-        <v>14</v>
-      </c>
-      <c r="H119" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
@@ -3622,17 +2542,8 @@
       <c r="E120" s="4">
         <v>58762593.17883762</v>
       </c>
-      <c r="F120" s="5">
-        <v>15</v>
-      </c>
-      <c r="G120" s="5">
-        <v>14</v>
-      </c>
-      <c r="H120" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
@@ -3648,17 +2559,8 @@
       <c r="E121" s="4">
         <v>113714823.23161806</v>
       </c>
-      <c r="F121" s="5">
-        <v>12</v>
-      </c>
-      <c r="G121" s="5">
-        <v>12</v>
-      </c>
-      <c r="H121" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -3674,17 +2576,8 @@
       <c r="E122" s="4">
         <v>140677782.95528644</v>
       </c>
-      <c r="F122" s="5">
-        <v>10</v>
-      </c>
-      <c r="G122" s="5">
-        <v>10</v>
-      </c>
-      <c r="H122" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -3700,17 +2593,8 @@
       <c r="E123" s="4">
         <v>152380568.97936749</v>
       </c>
-      <c r="F123" s="5">
-        <v>12</v>
-      </c>
-      <c r="G123" s="5">
-        <v>9</v>
-      </c>
-      <c r="H123" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
@@ -3726,17 +2610,8 @@
       <c r="E124" s="4">
         <v>306959132.77132154</v>
       </c>
-      <c r="F124" s="5">
-        <v>10</v>
-      </c>
-      <c r="G124" s="5">
-        <v>2</v>
-      </c>
-      <c r="H124" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>12</v>
       </c>
@@ -3752,17 +2627,8 @@
       <c r="E125" s="4">
         <v>215860887.41590717</v>
       </c>
-      <c r="F125" s="5">
-        <v>8</v>
-      </c>
-      <c r="G125" s="5">
-        <v>4</v>
-      </c>
-      <c r="H125" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>12</v>
       </c>
@@ -3778,17 +2644,8 @@
       <c r="E126" s="4">
         <v>176295473.61843437</v>
       </c>
-      <c r="F126" s="5">
-        <v>11</v>
-      </c>
-      <c r="G126" s="5">
-        <v>10</v>
-      </c>
-      <c r="H126" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
@@ -3804,17 +2661,8 @@
       <c r="E127" s="4">
         <v>212491837.05302918</v>
       </c>
-      <c r="F127" s="5">
-        <v>11</v>
-      </c>
-      <c r="G127" s="5">
-        <v>11</v>
-      </c>
-      <c r="H127" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -3830,17 +2678,8 @@
       <c r="E128" s="4">
         <v>261847553.28137705</v>
       </c>
-      <c r="F128" s="5">
-        <v>10</v>
-      </c>
-      <c r="G128" s="5">
-        <v>7</v>
-      </c>
-      <c r="H128" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -3856,17 +2695,8 @@
       <c r="E129" s="4">
         <v>230459031.21000001</v>
       </c>
-      <c r="F129" s="5">
-        <v>9</v>
-      </c>
-      <c r="G129" s="5">
-        <v>6</v>
-      </c>
-      <c r="H129" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>13</v>
       </c>
@@ -3882,17 +2712,8 @@
       <c r="E130" s="4">
         <v>194052609.04386932</v>
       </c>
-      <c r="F130" s="5">
-        <v>2</v>
-      </c>
-      <c r="G130" s="5">
-        <v>12</v>
-      </c>
-      <c r="H130" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>13</v>
       </c>
@@ -3908,17 +2729,8 @@
       <c r="E131" s="4">
         <v>126881005.40993059</v>
       </c>
-      <c r="F131" s="5">
-        <v>5</v>
-      </c>
-      <c r="G131" s="5">
-        <v>11</v>
-      </c>
-      <c r="H131" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>13</v>
       </c>
@@ -3934,17 +2746,8 @@
       <c r="E132" s="4">
         <v>151132944.85867509</v>
       </c>
-      <c r="F132" s="5">
-        <v>6</v>
-      </c>
-      <c r="G132" s="5">
-        <v>10</v>
-      </c>
-      <c r="H132" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>13</v>
       </c>
@@ -3960,17 +2763,8 @@
       <c r="E133" s="4">
         <v>133152121.67677033</v>
       </c>
-      <c r="F133" s="5">
-        <v>7</v>
-      </c>
-      <c r="G133" s="5">
-        <v>10</v>
-      </c>
-      <c r="H133" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>13</v>
       </c>
@@ -3986,17 +2780,8 @@
       <c r="E134" s="4">
         <v>174432695.39325738</v>
       </c>
-      <c r="F134" s="5">
-        <v>6</v>
-      </c>
-      <c r="G134" s="5">
-        <v>5</v>
-      </c>
-      <c r="H134" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>13</v>
       </c>
@@ -4012,17 +2797,8 @@
       <c r="E135" s="4">
         <v>255335918.23781046</v>
       </c>
-      <c r="F135" s="5">
-        <v>9</v>
-      </c>
-      <c r="G135" s="5">
-        <v>6</v>
-      </c>
-      <c r="H135" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>13</v>
       </c>
@@ -4038,17 +2814,8 @@
       <c r="E136" s="4">
         <v>858509209.24767423</v>
       </c>
-      <c r="F136" s="5">
-        <v>2</v>
-      </c>
-      <c r="G136" s="5">
-        <v>13</v>
-      </c>
-      <c r="H136" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
@@ -4064,17 +2831,8 @@
       <c r="E137" s="4">
         <v>323326343.50295711</v>
       </c>
-      <c r="F137" s="5">
-        <v>7</v>
-      </c>
-      <c r="G137" s="5">
-        <v>13</v>
-      </c>
-      <c r="H137" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>13</v>
       </c>
@@ -4090,17 +2848,8 @@
       <c r="E138" s="4">
         <v>334936471.08897799</v>
       </c>
-      <c r="F138" s="5">
-        <v>7</v>
-      </c>
-      <c r="G138" s="5">
-        <v>11</v>
-      </c>
-      <c r="H138" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -4116,17 +2865,8 @@
       <c r="E139" s="4">
         <v>217853051.06017178</v>
       </c>
-      <c r="F139" s="5">
-        <v>7</v>
-      </c>
-      <c r="G139" s="5">
-        <v>10</v>
-      </c>
-      <c r="H139" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>13</v>
       </c>
@@ -4142,17 +2882,8 @@
       <c r="E140" s="4">
         <v>375069256.48586851</v>
       </c>
-      <c r="F140" s="5">
-        <v>6</v>
-      </c>
-      <c r="G140" s="5">
-        <v>13</v>
-      </c>
-      <c r="H140" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>13</v>
       </c>
@@ -4168,17 +2899,8 @@
       <c r="E141" s="4">
         <v>307050224.3580848</v>
       </c>
-      <c r="F141" s="5">
-        <v>6</v>
-      </c>
-      <c r="G141" s="5">
-        <v>12</v>
-      </c>
-      <c r="H141" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -4194,17 +2916,8 @@
       <c r="E142" s="4">
         <v>350740783.70227081</v>
       </c>
-      <c r="F142" s="5">
-        <v>6</v>
-      </c>
-      <c r="G142" s="5">
-        <v>12</v>
-      </c>
-      <c r="H142" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>13</v>
       </c>
@@ -4220,17 +2933,8 @@
       <c r="E143" s="4">
         <v>348819600.47344989</v>
       </c>
-      <c r="F143" s="5">
-        <v>6</v>
-      </c>
-      <c r="G143" s="5">
-        <v>12</v>
-      </c>
-      <c r="H143" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -4246,17 +2950,8 @@
       <c r="E144" s="4">
         <v>522844293.73897302</v>
       </c>
-      <c r="F144" s="5">
-        <v>7</v>
-      </c>
-      <c r="G144" s="5">
-        <v>14</v>
-      </c>
-      <c r="H144" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>13</v>
       </c>
@@ -4272,17 +2967,8 @@
       <c r="E145" s="4">
         <v>579997774.80750012</v>
       </c>
-      <c r="F145" s="5">
-        <v>5</v>
-      </c>
-      <c r="G145" s="5">
-        <v>12</v>
-      </c>
-      <c r="H145" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>14</v>
       </c>
@@ -4298,17 +2984,8 @@
       <c r="E146" s="4">
         <v>20836080.343745433</v>
       </c>
-      <c r="F146" s="5">
-        <v>18</v>
-      </c>
-      <c r="G146" s="5">
-        <v>10</v>
-      </c>
-      <c r="H146" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>14</v>
       </c>
@@ -4324,17 +3001,8 @@
       <c r="E147" s="4">
         <v>48169227.385704361</v>
       </c>
-      <c r="F147" s="5">
-        <v>14</v>
-      </c>
-      <c r="G147" s="5">
-        <v>13</v>
-      </c>
-      <c r="H147" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>14</v>
       </c>
@@ -4350,17 +3018,8 @@
       <c r="E148" s="4">
         <v>47356441.448197238</v>
       </c>
-      <c r="F148" s="5">
-        <v>14</v>
-      </c>
-      <c r="G148" s="5">
-        <v>11</v>
-      </c>
-      <c r="H148" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>14</v>
       </c>
@@ -4376,17 +3035,8 @@
       <c r="E149" s="4">
         <v>57602051.450156607</v>
       </c>
-      <c r="F149" s="5">
-        <v>15</v>
-      </c>
-      <c r="G149" s="5">
-        <v>13</v>
-      </c>
-      <c r="H149" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>14</v>
       </c>
@@ -4402,17 +3052,8 @@
       <c r="E150" s="4">
         <v>75400462.69679521</v>
       </c>
-      <c r="F150" s="5">
-        <v>12</v>
-      </c>
-      <c r="G150" s="5">
-        <v>14</v>
-      </c>
-      <c r="H150" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>14</v>
       </c>
@@ -4428,17 +3069,8 @@
       <c r="E151" s="4">
         <v>98507107.004740521</v>
       </c>
-      <c r="F151" s="5">
-        <v>13</v>
-      </c>
-      <c r="G151" s="5">
-        <v>17</v>
-      </c>
-      <c r="H151" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>14</v>
       </c>
@@ -4454,17 +3086,8 @@
       <c r="E152" s="4">
         <v>122354955.45477206</v>
       </c>
-      <c r="F152" s="5">
-        <v>10</v>
-      </c>
-      <c r="G152" s="5">
-        <v>16</v>
-      </c>
-      <c r="H152" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>14</v>
       </c>
@@ -4480,17 +3103,8 @@
       <c r="E153" s="4">
         <v>431846382.73515618</v>
       </c>
-      <c r="F153" s="5">
-        <v>5</v>
-      </c>
-      <c r="G153" s="5">
-        <v>16</v>
-      </c>
-      <c r="H153" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>14</v>
       </c>
@@ -4506,17 +3120,8 @@
       <c r="E154" s="4">
         <v>100118028.48918769</v>
       </c>
-      <c r="F154" s="5">
-        <v>13</v>
-      </c>
-      <c r="G154" s="5">
-        <v>16</v>
-      </c>
-      <c r="H154" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>14</v>
       </c>
@@ -4532,17 +3137,8 @@
       <c r="E155" s="4">
         <v>82764243.662532762</v>
       </c>
-      <c r="F155" s="5">
-        <v>14</v>
-      </c>
-      <c r="G155" s="5">
-        <v>16</v>
-      </c>
-      <c r="H155" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>14</v>
       </c>
@@ -4558,17 +3154,8 @@
       <c r="E156" s="4">
         <v>120838402.47845416</v>
       </c>
-      <c r="F156" s="5">
-        <v>13</v>
-      </c>
-      <c r="G156" s="5">
-        <v>16</v>
-      </c>
-      <c r="H156" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>14</v>
       </c>
@@ -4584,17 +3171,8 @@
       <c r="E157" s="4">
         <v>67668378.822587699</v>
       </c>
-      <c r="F157" s="5">
-        <v>13</v>
-      </c>
-      <c r="G157" s="5">
-        <v>16</v>
-      </c>
-      <c r="H157" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>14</v>
       </c>
@@ -4610,17 +3188,8 @@
       <c r="E158" s="4">
         <v>64222001.703513652</v>
       </c>
-      <c r="F158" s="5">
-        <v>13</v>
-      </c>
-      <c r="G158" s="5">
-        <v>15</v>
-      </c>
-      <c r="H158" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>14</v>
       </c>
@@ -4636,17 +3205,8 @@
       <c r="E159" s="4">
         <v>44695049.581898376</v>
       </c>
-      <c r="F159" s="5">
-        <v>18</v>
-      </c>
-      <c r="G159" s="5">
-        <v>17</v>
-      </c>
-      <c r="H159" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>14</v>
       </c>
@@ -4662,17 +3222,8 @@
       <c r="E160" s="4">
         <v>54592219.96996668</v>
       </c>
-      <c r="F160" s="5">
-        <v>17</v>
-      </c>
-      <c r="G160" s="5">
-        <v>16</v>
-      </c>
-      <c r="H160" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>14</v>
       </c>
@@ -4688,17 +3239,8 @@
       <c r="E161" s="4">
         <v>53787068.380251296</v>
       </c>
-      <c r="F161" s="5">
-        <v>18</v>
-      </c>
-      <c r="G161" s="5">
-        <v>16</v>
-      </c>
-      <c r="H161" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>15</v>
       </c>
@@ -4714,17 +3256,8 @@
       <c r="E162" s="4">
         <v>136553962.69307664</v>
       </c>
-      <c r="F162" s="5">
-        <v>6</v>
-      </c>
-      <c r="G162" s="5">
-        <v>3</v>
-      </c>
-      <c r="H162" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -4740,17 +3273,8 @@
       <c r="E163" s="4">
         <v>115639864.78716627</v>
       </c>
-      <c r="F163" s="5">
-        <v>6</v>
-      </c>
-      <c r="G163" s="5">
-        <v>15</v>
-      </c>
-      <c r="H163" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>15</v>
       </c>
@@ -4766,17 +3290,8 @@
       <c r="E164" s="4">
         <v>132347114.93141313</v>
       </c>
-      <c r="F164" s="5">
-        <v>7</v>
-      </c>
-      <c r="G164" s="5">
-        <v>11</v>
-      </c>
-      <c r="H164" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>15</v>
       </c>
@@ -4792,17 +3307,8 @@
       <c r="E165" s="4">
         <v>189015427.62891361</v>
       </c>
-      <c r="F165" s="5">
-        <v>6</v>
-      </c>
-      <c r="G165" s="5">
-        <v>8</v>
-      </c>
-      <c r="H165" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>15</v>
       </c>
@@ -4818,17 +3324,8 @@
       <c r="E166" s="4">
         <v>226188076.24413449</v>
       </c>
-      <c r="F166" s="5">
-        <v>5</v>
-      </c>
-      <c r="G166" s="5">
-        <v>3</v>
-      </c>
-      <c r="H166" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>15</v>
       </c>
@@ -4844,17 +3341,8 @@
       <c r="E167" s="4">
         <v>368896918.32027572</v>
       </c>
-      <c r="F167" s="5">
-        <v>7</v>
-      </c>
-      <c r="G167" s="5">
-        <v>4</v>
-      </c>
-      <c r="H167" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>15</v>
       </c>
@@ -4870,17 +3358,8 @@
       <c r="E168" s="4">
         <v>479414074.88420433</v>
       </c>
-      <c r="F168" s="5">
-        <v>4</v>
-      </c>
-      <c r="G168" s="5">
-        <v>1</v>
-      </c>
-      <c r="H168" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>15</v>
       </c>
@@ -4896,17 +3375,8 @@
       <c r="E169" s="4">
         <v>437105795.09679317</v>
       </c>
-      <c r="F169" s="5">
-        <v>4</v>
-      </c>
-      <c r="G169" s="5">
-        <v>3</v>
-      </c>
-      <c r="H169" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>15</v>
       </c>
@@ -4922,17 +3392,8 @@
       <c r="E170" s="4">
         <v>457601850.61170208</v>
       </c>
-      <c r="F170" s="5">
-        <v>6</v>
-      </c>
-      <c r="G170" s="5">
-        <v>5</v>
-      </c>
-      <c r="H170" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>15</v>
       </c>
@@ -4948,17 +3409,8 @@
       <c r="E171" s="4">
         <v>416248842.95155329</v>
       </c>
-      <c r="F171" s="5">
-        <v>4</v>
-      </c>
-      <c r="G171" s="5">
-        <v>5</v>
-      </c>
-      <c r="H171" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -4974,17 +3426,8 @@
       <c r="E172" s="4">
         <v>590831978.27945387</v>
       </c>
-      <c r="F172" s="5">
-        <v>3</v>
-      </c>
-      <c r="G172" s="5">
-        <v>5</v>
-      </c>
-      <c r="H172" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>15</v>
       </c>
@@ -5000,17 +3443,8 @@
       <c r="E173" s="4">
         <v>551683741.90009081</v>
       </c>
-      <c r="F173" s="5">
-        <v>5</v>
-      </c>
-      <c r="G173" s="5">
-        <v>5</v>
-      </c>
-      <c r="H173" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>15</v>
       </c>
@@ -5026,17 +3460,8 @@
       <c r="E174" s="4">
         <v>620192081.33214605</v>
       </c>
-      <c r="F174" s="5">
-        <v>3</v>
-      </c>
-      <c r="G174" s="5">
-        <v>5</v>
-      </c>
-      <c r="H174" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>15</v>
       </c>
@@ -5052,17 +3477,8 @@
       <c r="E175" s="4">
         <v>610075692.55858767</v>
       </c>
-      <c r="F175" s="5">
-        <v>3</v>
-      </c>
-      <c r="G175" s="5">
-        <v>7</v>
-      </c>
-      <c r="H175" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>15</v>
       </c>
@@ -5078,17 +3494,8 @@
       <c r="E176" s="4">
         <v>731012692.45149326</v>
       </c>
-      <c r="F176" s="5">
-        <v>4</v>
-      </c>
-      <c r="G176" s="5">
-        <v>9</v>
-      </c>
-      <c r="H176" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>15</v>
       </c>
@@ -5104,17 +3511,8 @@
       <c r="E177" s="4">
         <v>851878623.16313899</v>
       </c>
-      <c r="F177" s="5">
-        <v>3</v>
-      </c>
-      <c r="G177" s="5">
-        <v>5</v>
-      </c>
-      <c r="H177" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>16</v>
       </c>
@@ -5130,17 +3528,8 @@
       <c r="E178" s="4">
         <v>67089317.296059944</v>
       </c>
-      <c r="F178" s="5">
-        <v>10</v>
-      </c>
-      <c r="G178" s="5">
-        <v>13</v>
-      </c>
-      <c r="H178" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>16</v>
       </c>
@@ -5156,17 +3545,8 @@
       <c r="E179" s="4">
         <v>65455661.698711671</v>
       </c>
-      <c r="F179" s="5">
-        <v>10</v>
-      </c>
-      <c r="G179" s="5">
-        <v>14</v>
-      </c>
-      <c r="H179" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>16</v>
       </c>
@@ -5182,17 +3562,8 @@
       <c r="E180" s="4">
         <v>70757444.436174214</v>
       </c>
-      <c r="F180" s="5">
-        <v>10</v>
-      </c>
-      <c r="G180" s="5">
-        <v>9</v>
-      </c>
-      <c r="H180" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>16</v>
       </c>
@@ -5208,17 +3579,8 @@
       <c r="E181" s="4">
         <v>104714401.91309056</v>
       </c>
-      <c r="F181" s="5">
-        <v>8</v>
-      </c>
-      <c r="G181" s="5">
-        <v>2</v>
-      </c>
-      <c r="H181" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>16</v>
       </c>
@@ -5234,17 +3596,8 @@
       <c r="E182" s="4">
         <v>110141606.43073186</v>
       </c>
-      <c r="F182" s="5">
-        <v>8</v>
-      </c>
-      <c r="G182" s="5">
-        <v>12</v>
-      </c>
-      <c r="H182" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -5260,17 +3613,8 @@
       <c r="E183" s="4">
         <v>130675351.35462201</v>
       </c>
-      <c r="F183" s="5">
-        <v>11</v>
-      </c>
-      <c r="G183" s="5">
-        <v>7</v>
-      </c>
-      <c r="H183" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
@@ -5286,17 +3630,8 @@
       <c r="E184" s="4">
         <v>128350498.54930198</v>
       </c>
-      <c r="F184" s="5">
-        <v>9</v>
-      </c>
-      <c r="G184" s="5">
-        <v>10</v>
-      </c>
-      <c r="H184" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>16</v>
       </c>
@@ -5312,17 +3647,8 @@
       <c r="E185" s="4">
         <v>165863813.15223992</v>
       </c>
-      <c r="F185" s="5">
-        <v>10</v>
-      </c>
-      <c r="G185" s="5">
-        <v>15</v>
-      </c>
-      <c r="H185" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>16</v>
       </c>
@@ -5338,17 +3664,8 @@
       <c r="E186" s="4">
         <v>194439658.8198899</v>
       </c>
-      <c r="F186" s="5">
-        <v>9</v>
-      </c>
-      <c r="G186" s="5">
-        <v>9</v>
-      </c>
-      <c r="H186" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>16</v>
       </c>
@@ -5364,17 +3681,8 @@
       <c r="E187" s="4">
         <v>194979957.51628962</v>
       </c>
-      <c r="F187" s="5">
-        <v>8</v>
-      </c>
-      <c r="G187" s="5">
-        <v>12</v>
-      </c>
-      <c r="H187" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>16</v>
       </c>
@@ -5390,17 +3698,8 @@
       <c r="E188" s="4">
         <v>191386347.23130998</v>
       </c>
-      <c r="F188" s="5">
-        <v>8</v>
-      </c>
-      <c r="G188" s="5">
-        <v>11</v>
-      </c>
-      <c r="H188" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>16</v>
       </c>
@@ -5416,17 +3715,8 @@
       <c r="E189" s="4">
         <v>165589425.62201726</v>
       </c>
-      <c r="F189" s="5">
-        <v>10</v>
-      </c>
-      <c r="G189" s="5">
-        <v>15</v>
-      </c>
-      <c r="H189" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>16</v>
       </c>
@@ -5442,17 +3732,8 @@
       <c r="E190" s="4">
         <v>185557210.20984152</v>
       </c>
-      <c r="F190" s="5">
-        <v>9</v>
-      </c>
-      <c r="G190" s="5">
-        <v>17</v>
-      </c>
-      <c r="H190" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>16</v>
       </c>
@@ -5468,17 +3749,8 @@
       <c r="E191" s="4">
         <v>253643080.89102975</v>
       </c>
-      <c r="F191" s="5">
-        <v>8</v>
-      </c>
-      <c r="G191" s="5">
-        <v>10</v>
-      </c>
-      <c r="H191" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>16</v>
       </c>
@@ -5494,17 +3766,8 @@
       <c r="E192" s="4">
         <v>273515760.3473444</v>
       </c>
-      <c r="F192" s="5">
-        <v>11</v>
-      </c>
-      <c r="G192" s="5">
-        <v>2</v>
-      </c>
-      <c r="H192" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>16</v>
       </c>
@@ -5520,17 +3783,8 @@
       <c r="E193" s="4">
         <v>169837421.72711021</v>
       </c>
-      <c r="F193" s="5">
-        <v>13</v>
-      </c>
-      <c r="G193" s="5">
-        <v>9</v>
-      </c>
-      <c r="H193" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>17</v>
       </c>
@@ -5546,17 +3800,8 @@
       <c r="E194" s="4">
         <v>54112029.340960264</v>
       </c>
-      <c r="F194" s="5">
-        <v>13</v>
-      </c>
-      <c r="G194" s="5">
-        <v>5</v>
-      </c>
-      <c r="H194" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>17</v>
       </c>
@@ -5572,17 +3817,8 @@
       <c r="E195" s="4">
         <v>69910005.711999089</v>
       </c>
-      <c r="F195" s="5">
-        <v>9</v>
-      </c>
-      <c r="G195" s="5">
-        <v>3</v>
-      </c>
-      <c r="H195" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -5598,17 +3834,8 @@
       <c r="E196" s="4">
         <v>69707647.595899716</v>
       </c>
-      <c r="F196" s="5">
-        <v>11</v>
-      </c>
-      <c r="G196" s="5">
-        <v>4</v>
-      </c>
-      <c r="H196" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -5624,17 +3851,8 @@
       <c r="E197" s="4">
         <v>61803815.182032637</v>
       </c>
-      <c r="F197" s="5">
-        <v>14</v>
-      </c>
-      <c r="G197" s="5">
-        <v>6</v>
-      </c>
-      <c r="H197" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>17</v>
       </c>
@@ -5650,17 +3868,8 @@
       <c r="E198" s="4">
         <v>68117376.714731708</v>
       </c>
-      <c r="F198" s="5">
-        <v>13</v>
-      </c>
-      <c r="G198" s="5">
-        <v>2</v>
-      </c>
-      <c r="H198" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>17</v>
       </c>
@@ -5676,17 +3885,8 @@
       <c r="E199" s="4">
         <v>74150736.045517892</v>
       </c>
-      <c r="F199" s="5">
-        <v>15</v>
-      </c>
-      <c r="G199" s="5">
-        <v>2</v>
-      </c>
-      <c r="H199" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>17</v>
       </c>
@@ -5702,17 +3902,8 @@
       <c r="E200" s="4">
         <v>96420114.566204235</v>
       </c>
-      <c r="F200" s="5">
-        <v>11</v>
-      </c>
-      <c r="G200" s="5">
-        <v>2</v>
-      </c>
-      <c r="H200" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>17</v>
       </c>
@@ -5728,17 +3919,8 @@
       <c r="E201" s="4">
         <v>122422303.73992804</v>
       </c>
-      <c r="F201" s="5">
-        <v>11</v>
-      </c>
-      <c r="G201" s="5">
-        <v>7</v>
-      </c>
-      <c r="H201" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>17</v>
       </c>
@@ -5754,17 +3936,8 @@
       <c r="E202" s="4">
         <v>735955394.87549186</v>
       </c>
-      <c r="F202" s="5">
-        <v>2</v>
-      </c>
-      <c r="G202" s="5">
-        <v>4</v>
-      </c>
-      <c r="H202" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>17</v>
       </c>
@@ -5780,17 +3953,8 @@
       <c r="E203" s="4">
         <v>155955427.69314188</v>
       </c>
-      <c r="F203" s="5">
-        <v>10</v>
-      </c>
-      <c r="G203" s="5">
-        <v>6</v>
-      </c>
-      <c r="H203" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>17</v>
       </c>
@@ -5806,17 +3970,8 @@
       <c r="E204" s="4">
         <v>167361675.43756583</v>
       </c>
-      <c r="F204" s="5">
-        <v>11</v>
-      </c>
-      <c r="G204" s="5">
-        <v>9</v>
-      </c>
-      <c r="H204" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -5832,17 +3987,8 @@
       <c r="E205" s="4">
         <v>124173756.27895658</v>
       </c>
-      <c r="F205" s="5">
-        <v>12</v>
-      </c>
-      <c r="G205" s="5">
-        <v>7</v>
-      </c>
-      <c r="H205" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>17</v>
       </c>
@@ -5858,17 +4004,8 @@
       <c r="E206" s="4">
         <v>126464789.983944</v>
       </c>
-      <c r="F206" s="5">
-        <v>12</v>
-      </c>
-      <c r="G206" s="5">
-        <v>6</v>
-      </c>
-      <c r="H206" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>17</v>
       </c>
@@ -5884,17 +4021,8 @@
       <c r="E207" s="4">
         <v>121914189.24595733</v>
       </c>
-      <c r="F207" s="5">
-        <v>15</v>
-      </c>
-      <c r="G207" s="5">
-        <v>5</v>
-      </c>
-      <c r="H207" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>17</v>
       </c>
@@ -5910,17 +4038,8 @@
       <c r="E208" s="4">
         <v>101800002.01962014</v>
       </c>
-      <c r="F208" s="5">
-        <v>15</v>
-      </c>
-      <c r="G208" s="5">
-        <v>3</v>
-      </c>
-      <c r="H208" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>17</v>
       </c>
@@ -5936,17 +4055,8 @@
       <c r="E209" s="4">
         <v>196876673.81</v>
       </c>
-      <c r="F209" s="5">
-        <v>11</v>
-      </c>
-      <c r="G209" s="5">
-        <v>3</v>
-      </c>
-      <c r="H209" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>18</v>
       </c>
@@ -5962,17 +4072,8 @@
       <c r="E210" s="4">
         <v>67072843.538935959</v>
       </c>
-      <c r="F210" s="5">
-        <v>11</v>
-      </c>
-      <c r="G210" s="5">
-        <v>11</v>
-      </c>
-      <c r="H210" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>18</v>
       </c>
@@ -5988,17 +4089,8 @@
       <c r="E211" s="4">
         <v>65374626.504013203</v>
       </c>
-      <c r="F211" s="5">
-        <v>11</v>
-      </c>
-      <c r="G211" s="5">
-        <v>8</v>
-      </c>
-      <c r="H211" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>18</v>
       </c>
@@ -6014,17 +4106,8 @@
       <c r="E212" s="4">
         <v>31615674.689542547</v>
       </c>
-      <c r="F212" s="5">
-        <v>18</v>
-      </c>
-      <c r="G212" s="5">
-        <v>6</v>
-      </c>
-      <c r="H212" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>18</v>
       </c>
@@ -6040,17 +4123,8 @@
       <c r="E213" s="4">
         <v>28511216.066566642</v>
       </c>
-      <c r="F213" s="5">
-        <v>18</v>
-      </c>
-      <c r="G213" s="5">
-        <v>12</v>
-      </c>
-      <c r="H213" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>18</v>
       </c>
@@ -6066,17 +4140,8 @@
       <c r="E214" s="4">
         <v>30383826.13135023</v>
       </c>
-      <c r="F214" s="5">
-        <v>17</v>
-      </c>
-      <c r="G214" s="5">
-        <v>9</v>
-      </c>
-      <c r="H214" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>18</v>
       </c>
@@ -6092,17 +4157,8 @@
       <c r="E215" s="4">
         <v>23269297.944736678</v>
       </c>
-      <c r="F215" s="5">
-        <v>18</v>
-      </c>
-      <c r="G215" s="5">
-        <v>10</v>
-      </c>
-      <c r="H215" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -6118,17 +4174,8 @@
       <c r="E216" s="4">
         <v>21334769.904716238</v>
       </c>
-      <c r="F216" s="5">
-        <v>18</v>
-      </c>
-      <c r="G216" s="5">
-        <v>8</v>
-      </c>
-      <c r="H216" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>18</v>
       </c>
@@ -6144,17 +4191,8 @@
       <c r="E217" s="4">
         <v>27623151.355758019</v>
       </c>
-      <c r="F217" s="5">
-        <v>18</v>
-      </c>
-      <c r="G217" s="5">
-        <v>9</v>
-      </c>
-      <c r="H217" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>18</v>
       </c>
@@ -6170,17 +4208,8 @@
       <c r="E218" s="4">
         <v>32433371.962868761</v>
       </c>
-      <c r="F218" s="5">
-        <v>18</v>
-      </c>
-      <c r="G218" s="5">
-        <v>8</v>
-      </c>
-      <c r="H218" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>18</v>
       </c>
@@ -6196,17 +4225,8 @@
       <c r="E219" s="4">
         <v>35605307.903861836</v>
       </c>
-      <c r="F219" s="5">
-        <v>18</v>
-      </c>
-      <c r="G219" s="5">
-        <v>11</v>
-      </c>
-      <c r="H219" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>18</v>
       </c>
@@ -6222,17 +4242,8 @@
       <c r="E220" s="4">
         <v>24715733.394117929</v>
       </c>
-      <c r="F220" s="5">
-        <v>18</v>
-      </c>
-      <c r="G220" s="5">
-        <v>15</v>
-      </c>
-      <c r="H220" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>18</v>
       </c>
@@ -6248,17 +4259,8 @@
       <c r="E221" s="4">
         <v>21094526.453472503</v>
       </c>
-      <c r="F221" s="5">
-        <v>18</v>
-      </c>
-      <c r="G221" s="5">
-        <v>14</v>
-      </c>
-      <c r="H221" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>18</v>
       </c>
@@ -6274,17 +4276,8 @@
       <c r="E222" s="4">
         <v>34651486.35949596</v>
       </c>
-      <c r="F222" s="5">
-        <v>18</v>
-      </c>
-      <c r="G222" s="5">
-        <v>4</v>
-      </c>
-      <c r="H222" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>18</v>
       </c>
@@ -6300,17 +4293,8 @@
       <c r="E223" s="4">
         <v>216022672.15469268</v>
       </c>
-      <c r="F223" s="5">
-        <v>10</v>
-      </c>
-      <c r="G223" s="5">
-        <v>15</v>
-      </c>
-      <c r="H223" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>18</v>
       </c>
@@ -6326,17 +4310,8 @@
       <c r="E224" s="4">
         <v>106743589.81898421</v>
       </c>
-      <c r="F224" s="5">
-        <v>13</v>
-      </c>
-      <c r="G224" s="5">
-        <v>8</v>
-      </c>
-      <c r="H224" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>18</v>
       </c>
@@ -6352,17 +4327,8 @@
       <c r="E225" s="4">
         <v>62074278.530000009</v>
       </c>
-      <c r="F225" s="5">
-        <v>17</v>
-      </c>
-      <c r="G225" s="5">
-        <v>14</v>
-      </c>
-      <c r="H225" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>19</v>
       </c>
@@ -6378,17 +4344,8 @@
       <c r="E226" s="4">
         <v>45031179.263368651</v>
       </c>
-      <c r="F226" s="5">
-        <v>15</v>
-      </c>
-      <c r="G226" s="5">
-        <v>13</v>
-      </c>
-      <c r="H226" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>19</v>
       </c>
@@ -6404,17 +4361,8 @@
       <c r="E227" s="4">
         <v>40752152.087075241</v>
       </c>
-      <c r="F227" s="5">
-        <v>18</v>
-      </c>
-      <c r="G227" s="5">
-        <v>16</v>
-      </c>
-      <c r="H227" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>19</v>
       </c>
@@ -6430,17 +4378,8 @@
       <c r="E228" s="4">
         <v>38029891.227302626</v>
       </c>
-      <c r="F228" s="5">
-        <v>17</v>
-      </c>
-      <c r="G228" s="5">
-        <v>11</v>
-      </c>
-      <c r="H228" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>19</v>
       </c>
@@ -6456,17 +4395,8 @@
       <c r="E229" s="4">
         <v>55878059.666931331</v>
       </c>
-      <c r="F229" s="5">
-        <v>16</v>
-      </c>
-      <c r="G229" s="5">
-        <v>4</v>
-      </c>
-      <c r="H229" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>19</v>
       </c>
@@ -6482,17 +4412,8 @@
       <c r="E230" s="4">
         <v>123998687.62330398</v>
       </c>
-      <c r="F230" s="5">
-        <v>7</v>
-      </c>
-      <c r="G230" s="5">
-        <v>14</v>
-      </c>
-      <c r="H230" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>19</v>
       </c>
@@ -6508,17 +4429,8 @@
       <c r="E231" s="4">
         <v>159356489.84738225</v>
       </c>
-      <c r="F231" s="5">
-        <v>12</v>
-      </c>
-      <c r="G231" s="5">
-        <v>1</v>
-      </c>
-      <c r="H231" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>19</v>
       </c>
@@ -6534,17 +4446,8 @@
       <c r="E232" s="4">
         <v>343136001.47597879</v>
       </c>
-      <c r="F232" s="5">
-        <v>7</v>
-      </c>
-      <c r="G232" s="5">
-        <v>17</v>
-      </c>
-      <c r="H232" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>19</v>
       </c>
@@ -6560,17 +4463,8 @@
       <c r="E233" s="4">
         <v>507205501.5334022</v>
       </c>
-      <c r="F233" s="5">
-        <v>9</v>
-      </c>
-      <c r="G233" s="5">
-        <v>1</v>
-      </c>
-      <c r="H233" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>19</v>
       </c>
@@ -6586,17 +4480,8 @@
       <c r="E234" s="4">
         <v>174969820.29477599</v>
       </c>
-      <c r="F234" s="5">
-        <v>15</v>
-      </c>
-      <c r="G234" s="5">
-        <v>1</v>
-      </c>
-      <c r="H234" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>19</v>
       </c>
@@ -6612,17 +4497,8 @@
       <c r="E235" s="4">
         <v>299905798.91414738</v>
       </c>
-      <c r="F235" s="5">
-        <v>6</v>
-      </c>
-      <c r="G235" s="5">
-        <v>1</v>
-      </c>
-      <c r="H235" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>19</v>
       </c>
@@ -6638,17 +4514,8 @@
       <c r="E236" s="4">
         <v>506212564.24736851</v>
       </c>
-      <c r="F236" s="5">
-        <v>7</v>
-      </c>
-      <c r="G236" s="5">
-        <v>1</v>
-      </c>
-      <c r="H236" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>19</v>
       </c>
@@ -6664,17 +4531,8 @@
       <c r="E237" s="4">
         <v>479214586.21119708</v>
       </c>
-      <c r="F237" s="5">
-        <v>7</v>
-      </c>
-      <c r="G237" s="5">
-        <v>1</v>
-      </c>
-      <c r="H237" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>19</v>
       </c>
@@ -6690,17 +4548,8 @@
       <c r="E238" s="4">
         <v>419636258.13103461</v>
       </c>
-      <c r="F238" s="5">
-        <v>7</v>
-      </c>
-      <c r="G238" s="5">
-        <v>1</v>
-      </c>
-      <c r="H238" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>19</v>
       </c>
@@ -6716,17 +4565,8 @@
       <c r="E239" s="4">
         <v>260024183.43095869</v>
       </c>
-      <c r="F239" s="5">
-        <v>9</v>
-      </c>
-      <c r="G239" s="5">
-        <v>4</v>
-      </c>
-      <c r="H239" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>19</v>
       </c>
@@ -6742,17 +4582,8 @@
       <c r="E240" s="4">
         <v>281794898.3660602</v>
       </c>
-      <c r="F240" s="5">
-        <v>8</v>
-      </c>
-      <c r="G240" s="5">
-        <v>17</v>
-      </c>
-      <c r="H240" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>19</v>
       </c>
@@ -6768,17 +4599,8 @@
       <c r="E241" s="4">
         <v>583809040.10335755</v>
       </c>
-      <c r="F241" s="5">
-        <v>7</v>
-      </c>
-      <c r="G241" s="5">
-        <v>1</v>
-      </c>
-      <c r="H241" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>20</v>
       </c>
@@ -6794,17 +4616,8 @@
       <c r="E242" s="4">
         <v>159530635.64980191</v>
       </c>
-      <c r="F242" s="5">
-        <v>4</v>
-      </c>
-      <c r="G242" s="5">
-        <v>2</v>
-      </c>
-      <c r="H242" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>20</v>
       </c>
@@ -6820,17 +4633,8 @@
       <c r="E243" s="4">
         <v>104341139.99281168</v>
       </c>
-      <c r="F243" s="5">
-        <v>7</v>
-      </c>
-      <c r="G243" s="5">
-        <v>1</v>
-      </c>
-      <c r="H243" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>20</v>
       </c>
@@ -6846,17 +4650,8 @@
       <c r="E244" s="4">
         <v>193805698.33275509</v>
       </c>
-      <c r="F244" s="5">
-        <v>4</v>
-      </c>
-      <c r="G244" s="5">
-        <v>11</v>
-      </c>
-      <c r="H244" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>20</v>
       </c>
@@ -6872,17 +4667,8 @@
       <c r="E245" s="4">
         <v>213830843.79094619</v>
       </c>
-      <c r="F245" s="5">
-        <v>4</v>
-      </c>
-      <c r="G245" s="5">
-        <v>13</v>
-      </c>
-      <c r="H245" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>20</v>
       </c>
@@ -6898,17 +4684,8 @@
       <c r="E246" s="4">
         <v>245187580.60084677</v>
       </c>
-      <c r="F246" s="5">
-        <v>4</v>
-      </c>
-      <c r="G246" s="5">
-        <v>13</v>
-      </c>
-      <c r="H246" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>20</v>
       </c>
@@ -6924,17 +4701,8 @@
       <c r="E247" s="4">
         <v>440535517.8828814</v>
       </c>
-      <c r="F247" s="5">
-        <v>5</v>
-      </c>
-      <c r="G247" s="5">
-        <v>15</v>
-      </c>
-      <c r="H247" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>20</v>
       </c>
@@ -6950,17 +4718,8 @@
       <c r="E248" s="4">
         <v>408687083.05006069</v>
       </c>
-      <c r="F248" s="5">
-        <v>6</v>
-      </c>
-      <c r="G248" s="5">
-        <v>5</v>
-      </c>
-      <c r="H248" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>20</v>
       </c>
@@ -6976,17 +4735,8 @@
       <c r="E249" s="4">
         <v>668144816.45137227</v>
       </c>
-      <c r="F249" s="5">
-        <v>3</v>
-      </c>
-      <c r="G249" s="5">
-        <v>8</v>
-      </c>
-      <c r="H249" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>20</v>
       </c>
@@ -7002,17 +4752,8 @@
       <c r="E250" s="4">
         <v>523344926.81842685</v>
       </c>
-      <c r="F250" s="5">
-        <v>4</v>
-      </c>
-      <c r="G250" s="5">
-        <v>7</v>
-      </c>
-      <c r="H250" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>20</v>
       </c>
@@ -7028,17 +4769,8 @@
       <c r="E251" s="4">
         <v>533535505.7217924</v>
       </c>
-      <c r="F251" s="5">
-        <v>3</v>
-      </c>
-      <c r="G251" s="5">
-        <v>7</v>
-      </c>
-      <c r="H251" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>20</v>
       </c>
@@ -7054,17 +4786,8 @@
       <c r="E252" s="4">
         <v>564899990.58991659</v>
       </c>
-      <c r="F252" s="5">
-        <v>4</v>
-      </c>
-      <c r="G252" s="5">
-        <v>10</v>
-      </c>
-      <c r="H252" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>20</v>
       </c>
@@ -7080,17 +4803,8 @@
       <c r="E253" s="4">
         <v>556465221.12662876</v>
       </c>
-      <c r="F253" s="5">
-        <v>4</v>
-      </c>
-      <c r="G253" s="5">
-        <v>8</v>
-      </c>
-      <c r="H253" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>20</v>
       </c>
@@ -7106,17 +4820,8 @@
       <c r="E254" s="4">
         <v>540438559.52676284</v>
       </c>
-      <c r="F254" s="5">
-        <v>5</v>
-      </c>
-      <c r="G254" s="5">
-        <v>8</v>
-      </c>
-      <c r="H254" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>20</v>
       </c>
@@ -7132,17 +4837,8 @@
       <c r="E255" s="4">
         <v>365391897.38889647</v>
       </c>
-      <c r="F255" s="5">
-        <v>5</v>
-      </c>
-      <c r="G255" s="5">
-        <v>8</v>
-      </c>
-      <c r="H255" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>20</v>
       </c>
@@ -7158,17 +4854,8 @@
       <c r="E256" s="4">
         <v>607460080.89789677</v>
       </c>
-      <c r="F256" s="5">
-        <v>6</v>
-      </c>
-      <c r="G256" s="5">
-        <v>11</v>
-      </c>
-      <c r="H256" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>20</v>
       </c>
@@ -7184,17 +4871,8 @@
       <c r="E257" s="4">
         <v>511484217.83079982</v>
       </c>
-      <c r="F257" s="5">
-        <v>6</v>
-      </c>
-      <c r="G257" s="5">
-        <v>10</v>
-      </c>
-      <c r="H257" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>21</v>
       </c>
@@ -7210,17 +4888,8 @@
       <c r="E258" s="4">
         <v>125760105.19325</v>
       </c>
-      <c r="F258" s="5">
-        <v>7</v>
-      </c>
-      <c r="G258" s="5">
-        <v>13</v>
-      </c>
-      <c r="H258" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>21</v>
       </c>
@@ -7236,17 +4905,8 @@
       <c r="E259" s="4">
         <v>263955183.70990399</v>
       </c>
-      <c r="F259" s="5">
-        <v>2</v>
-      </c>
-      <c r="G259" s="5">
-        <v>6</v>
-      </c>
-      <c r="H259" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>21</v>
       </c>
@@ -7262,17 +4922,8 @@
       <c r="E260" s="4">
         <v>258691586.34139514</v>
       </c>
-      <c r="F260" s="5">
-        <v>2</v>
-      </c>
-      <c r="G260" s="5">
-        <v>3</v>
-      </c>
-      <c r="H260" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>21</v>
       </c>
@@ -7288,17 +4939,8 @@
       <c r="E261" s="4">
         <v>363683493.83498633</v>
       </c>
-      <c r="F261" s="5">
-        <v>2</v>
-      </c>
-      <c r="G261" s="5">
-        <v>5</v>
-      </c>
-      <c r="H261" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>21</v>
       </c>
@@ -7314,17 +4956,8 @@
       <c r="E262" s="4">
         <v>327859691.60526645</v>
       </c>
-      <c r="F262" s="5">
-        <v>3</v>
-      </c>
-      <c r="G262" s="5">
-        <v>10</v>
-      </c>
-      <c r="H262" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>21</v>
       </c>
@@ -7340,17 +4973,8 @@
       <c r="E263" s="4">
         <v>341897266.59925437</v>
       </c>
-      <c r="F263" s="5">
-        <v>8</v>
-      </c>
-      <c r="G263" s="5">
-        <v>11</v>
-      </c>
-      <c r="H263" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>21</v>
       </c>
@@ -7366,17 +4990,8 @@
       <c r="E264" s="4">
         <v>459614268.29253721</v>
       </c>
-      <c r="F264" s="5">
-        <v>5</v>
-      </c>
-      <c r="G264" s="5">
-        <v>7</v>
-      </c>
-      <c r="H264" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>21</v>
       </c>
@@ -7392,17 +5007,8 @@
       <c r="E265" s="4">
         <v>436038983.37028682</v>
       </c>
-      <c r="F265" s="5">
-        <v>6</v>
-      </c>
-      <c r="G265" s="5">
-        <v>2</v>
-      </c>
-      <c r="H265" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>21</v>
       </c>
@@ -7418,17 +5024,8 @@
       <c r="E266" s="4">
         <v>474806668.3743645</v>
       </c>
-      <c r="F266" s="5">
-        <v>5</v>
-      </c>
-      <c r="G266" s="5">
-        <v>2</v>
-      </c>
-      <c r="H266" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>21</v>
       </c>
@@ -7444,17 +5041,8 @@
       <c r="E267" s="4">
         <v>323069886.97178364</v>
       </c>
-      <c r="F267" s="5">
-        <v>5</v>
-      </c>
-      <c r="G267" s="5">
-        <v>4</v>
-      </c>
-      <c r="H267" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>21</v>
       </c>
@@ -7470,17 +5058,8 @@
       <c r="E268" s="4">
         <v>492183560.56107962</v>
       </c>
-      <c r="F268" s="5">
-        <v>5</v>
-      </c>
-      <c r="G268" s="5">
-        <v>3</v>
-      </c>
-      <c r="H268" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>21</v>
       </c>
@@ -7496,17 +5075,8 @@
       <c r="E269" s="4">
         <v>604004214.15172541</v>
       </c>
-      <c r="F269" s="5">
-        <v>3</v>
-      </c>
-      <c r="G269" s="5">
-        <v>3</v>
-      </c>
-      <c r="H269" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>21</v>
       </c>
@@ -7522,17 +5092,8 @@
       <c r="E270" s="4">
         <v>581540397.34211969</v>
       </c>
-      <c r="F270" s="5">
-        <v>4</v>
-      </c>
-      <c r="G270" s="5">
-        <v>3</v>
-      </c>
-      <c r="H270" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>21</v>
       </c>
@@ -7548,17 +5109,8 @@
       <c r="E271" s="4">
         <v>605118676.22677135</v>
       </c>
-      <c r="F271" s="5">
-        <v>4</v>
-      </c>
-      <c r="G271" s="5">
-        <v>2</v>
-      </c>
-      <c r="H271" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>21</v>
       </c>
@@ -7574,17 +5126,8 @@
       <c r="E272" s="4">
         <v>755494385.6064986</v>
       </c>
-      <c r="F272" s="5">
-        <v>3</v>
-      </c>
-      <c r="G272" s="5">
-        <v>5</v>
-      </c>
-      <c r="H272" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>21</v>
       </c>
@@ -7600,17 +5143,8 @@
       <c r="E273" s="4">
         <v>740768874.94999981</v>
       </c>
-      <c r="F273" s="5">
-        <v>4</v>
-      </c>
-      <c r="G273" s="5">
-        <v>8</v>
-      </c>
-      <c r="H273" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>22</v>
       </c>
@@ -7626,17 +5160,8 @@
       <c r="E274" s="4">
         <v>73773630.349751115</v>
       </c>
-      <c r="F274" s="5">
-        <v>9</v>
-      </c>
-      <c r="G274" s="5">
-        <v>13</v>
-      </c>
-      <c r="H274" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>22</v>
       </c>
@@ -7652,17 +5177,8 @@
       <c r="E275" s="4">
         <v>42448328.042323187</v>
       </c>
-      <c r="F275" s="5">
-        <v>16</v>
-      </c>
-      <c r="G275" s="5">
-        <v>16</v>
-      </c>
-      <c r="H275" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>22</v>
       </c>
@@ -7678,17 +5194,8 @@
       <c r="E276" s="4">
         <v>43242381.036485955</v>
       </c>
-      <c r="F276" s="5">
-        <v>15</v>
-      </c>
-      <c r="G276" s="5">
-        <v>11</v>
-      </c>
-      <c r="H276" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>22</v>
       </c>
@@ -7704,17 +5211,8 @@
       <c r="E277" s="4">
         <v>70880839.18787317</v>
       </c>
-      <c r="F277" s="5">
-        <v>13</v>
-      </c>
-      <c r="G277" s="5">
-        <v>13</v>
-      </c>
-      <c r="H277" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>22</v>
       </c>
@@ -7730,17 +5228,8 @@
       <c r="E278" s="4">
         <v>39698013.707081035</v>
       </c>
-      <c r="F278" s="5">
-        <v>16</v>
-      </c>
-      <c r="G278" s="5">
-        <v>14</v>
-      </c>
-      <c r="H278" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>22</v>
       </c>
@@ -7756,17 +5245,8 @@
       <c r="E279" s="4">
         <v>163501062.88580853</v>
       </c>
-      <c r="F279" s="5">
-        <v>10</v>
-      </c>
-      <c r="G279" s="5">
-        <v>18</v>
-      </c>
-      <c r="H279" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>22</v>
       </c>
@@ -7782,17 +5262,8 @@
       <c r="E280" s="4">
         <v>219215244.4526161</v>
       </c>
-      <c r="F280" s="5">
-        <v>8</v>
-      </c>
-      <c r="G280" s="5">
-        <v>17</v>
-      </c>
-      <c r="H280" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>22</v>
       </c>
@@ -7808,17 +5279,8 @@
       <c r="E281" s="4">
         <v>322215637.80451512</v>
       </c>
-      <c r="F281" s="5">
-        <v>8</v>
-      </c>
-      <c r="G281" s="5">
-        <v>18</v>
-      </c>
-      <c r="H281" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>22</v>
       </c>
@@ -7834,17 +5296,8 @@
       <c r="E282" s="4">
         <v>243517234.90167528</v>
       </c>
-      <c r="F282" s="5">
-        <v>8</v>
-      </c>
-      <c r="G282" s="5">
-        <v>17</v>
-      </c>
-      <c r="H282" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>22</v>
       </c>
@@ -7860,17 +5313,8 @@
       <c r="E283" s="4">
         <v>173539446.15632755</v>
       </c>
-      <c r="F283" s="5">
-        <v>9</v>
-      </c>
-      <c r="G283" s="5">
-        <v>17</v>
-      </c>
-      <c r="H283" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>22</v>
       </c>
@@ -7886,17 +5330,8 @@
       <c r="E284" s="4">
         <v>172658503.09910026</v>
       </c>
-      <c r="F284" s="5">
-        <v>9</v>
-      </c>
-      <c r="G284" s="5">
-        <v>17</v>
-      </c>
-      <c r="H284" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>22</v>
       </c>
@@ -7912,17 +5347,8 @@
       <c r="E285" s="4">
         <v>188813342.49153119</v>
       </c>
-      <c r="F285" s="5">
-        <v>9</v>
-      </c>
-      <c r="G285" s="5">
-        <v>17</v>
-      </c>
-      <c r="H285" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>22</v>
       </c>
@@ -7938,17 +5364,8 @@
       <c r="E286" s="4">
         <v>179964439.59592155</v>
       </c>
-      <c r="F286" s="5">
-        <v>10</v>
-      </c>
-      <c r="G286" s="5">
-        <v>17</v>
-      </c>
-      <c r="H286" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>22</v>
       </c>
@@ -7964,17 +5381,8 @@
       <c r="E287" s="4">
         <v>193873302.54782566</v>
       </c>
-      <c r="F287" s="5">
-        <v>12</v>
-      </c>
-      <c r="G287" s="5">
-        <v>18</v>
-      </c>
-      <c r="H287" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>22</v>
       </c>
@@ -7990,17 +5398,8 @@
       <c r="E288" s="4">
         <v>265936456.88159037</v>
       </c>
-      <c r="F288" s="5">
-        <v>9</v>
-      </c>
-      <c r="G288" s="5">
-        <v>18</v>
-      </c>
-      <c r="H288" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>22</v>
       </c>
@@ -8016,46 +5415,13 @@
       <c r="E289" s="4">
         <v>194065057.29999998</v>
       </c>
-      <c r="F289" s="5">
-        <v>10</v>
-      </c>
-      <c r="G289" s="5">
-        <v>17</v>
-      </c>
-      <c r="H289" s="5">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H289" xr:uid="{441DABB6-F277-45A4-B633-423809CAED4B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H289">
+  <autoFilter ref="A1:E289" xr:uid="{441DABB6-F277-45A4-B633-423809CAED4B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E289">
       <sortCondition ref="A1:A289"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F289">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H289">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>